--- a/Dashboards/SWIFT.xlsx
+++ b/Dashboards/SWIFT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peterB\repositories\hobby projecten\BlockTanksStats\Dashboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18F769F-394F-40E0-BBCF-B7D411066782}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EA3D9E-BC8B-4E16-BDD6-9290516BE98C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,9 +63,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Totals</t>
+  </si>
+  <si>
+    <t>Clan total</t>
   </si>
 </sst>
 </file>
@@ -112,13 +115,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -191,6 +196,326 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>'XP Per Day'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Clan total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'XP Per Day'!$A$3:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>96.484083333331995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>125.69475</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>310.4483333333319</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>353.18445833333396</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>81.479374999999806</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1106.7368333333361</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2342.9488333333279</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>157.88558333333199</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1DB9-42BD-92F3-2FEE66B51816}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1733142703"/>
+        <c:axId val="1571288831"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1733142703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1571288831"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1571288831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1733142703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>[2]Xp!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -226,10 +551,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[2]Xp!$A$2:$A$40</c:f>
+              <c:f>[2]Xp!$A$2:$A$67</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>44261.563923611109</c:v>
                 </c:pt>
@@ -346,16 +671,97 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>44270.746562499997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44270.99490740741</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44271.24490740741</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44271.494895833333</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44271.743819444448</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44271.967175925929</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44272.217187499999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44272.364363425928</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44272.496574074074</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44272.97351851852</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44272.99658564815</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44273.113668981481</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44273.25203703704</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44273.502060185187</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44273.752071759256</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44274.362974537034</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44274.496574074074</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44274.746608796297</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44274.996631944443</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44275.246608796297</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44275.520902777775</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44275.74659722222</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44275.780185185184</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44275.996562499997</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44276.246562499997</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44276.496550925927</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44276.771909722222</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44276.99659722222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[2]Xp!$B$2:$B$40</c:f>
+              <c:f>[2]Xp!$B$2:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -471,6 +877,87 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -523,10 +1010,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[2]Xp!$A$2:$A$40</c:f>
+              <c:f>[2]Xp!$A$2:$A$67</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>44261.563923611109</c:v>
                 </c:pt>
@@ -643,16 +1130,97 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>44270.746562499997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44270.99490740741</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44271.24490740741</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44271.494895833333</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44271.743819444448</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44271.967175925929</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44272.217187499999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44272.364363425928</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44272.496574074074</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44272.97351851852</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44272.99658564815</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44273.113668981481</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44273.25203703704</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44273.502060185187</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44273.752071759256</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44274.362974537034</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44274.496574074074</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44274.746608796297</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44274.996631944443</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44275.246608796297</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44275.520902777775</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44275.74659722222</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44275.780185185184</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44275.996562499997</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44276.246562499997</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44276.496550925927</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44276.771909722222</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44276.99659722222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[2]Xp!$C$2:$C$40</c:f>
+              <c:f>[2]Xp!$C$2:$C$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -769,6 +1337,87 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>109.11183333333599</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -820,10 +1469,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[2]Xp!$A$2:$A$40</c:f>
+              <c:f>[2]Xp!$A$2:$A$67</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>44261.563923611109</c:v>
                 </c:pt>
@@ -940,16 +1589,97 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>44270.746562499997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44270.99490740741</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44271.24490740741</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44271.494895833333</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44271.743819444448</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44271.967175925929</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44272.217187499999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44272.364363425928</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44272.496574074074</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44272.97351851852</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44272.99658564815</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44273.113668981481</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44273.25203703704</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44273.502060185187</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44273.752071759256</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44274.362974537034</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44274.496574074074</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44274.746608796297</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44274.996631944443</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44275.246608796297</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44275.520902777775</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44275.74659722222</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44275.780185185184</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44275.996562499997</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44276.246562499997</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44276.496550925927</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44276.771909722222</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44276.99659722222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[2]Xp!$D$2:$D$40</c:f>
+              <c:f>[2]Xp!$D$2:$D$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1065,6 +1795,87 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1117,10 +1928,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[2]Xp!$A$2:$A$40</c:f>
+              <c:f>[2]Xp!$A$2:$A$67</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>44261.563923611109</c:v>
                 </c:pt>
@@ -1237,16 +2048,97 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>44270.746562499997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44270.99490740741</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44271.24490740741</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44271.494895833333</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44271.743819444448</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44271.967175925929</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44272.217187499999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44272.364363425928</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44272.496574074074</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44272.97351851852</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44272.99658564815</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44273.113668981481</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44273.25203703704</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44273.502060185187</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44273.752071759256</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44274.362974537034</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44274.496574074074</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44274.746608796297</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44274.996631944443</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44275.246608796297</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44275.520902777775</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44275.74659722222</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44275.780185185184</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44275.996562499997</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44276.246562499997</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44276.496550925927</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44276.771909722222</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44276.99659722222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[2]Xp!$E$2:$E$40</c:f>
+              <c:f>[2]Xp!$E$2:$E$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1363,6 +2255,87 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>997.625</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1414,10 +2387,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[2]Xp!$A$2:$A$40</c:f>
+              <c:f>[2]Xp!$A$2:$A$67</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>44261.563923611109</c:v>
                 </c:pt>
@@ -1534,16 +2507,97 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>44270.746562499997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44270.99490740741</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44271.24490740741</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44271.494895833333</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44271.743819444448</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44271.967175925929</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44272.217187499999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44272.364363425928</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44272.496574074074</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44272.97351851852</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44272.99658564815</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44273.113668981481</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44273.25203703704</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44273.502060185187</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44273.752071759256</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44274.362974537034</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44274.496574074074</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44274.746608796297</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44274.996631944443</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44275.246608796297</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44275.520902777775</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44275.74659722222</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44275.780185185184</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44275.996562499997</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44276.246562499997</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44276.496550925927</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44276.771909722222</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44276.99659722222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[2]Xp!$F$2:$F$40</c:f>
+              <c:f>[2]Xp!$F$2:$F$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1659,6 +2713,87 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1711,10 +2846,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[2]Xp!$A$2:$A$40</c:f>
+              <c:f>[2]Xp!$A$2:$A$67</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>44261.563923611109</c:v>
                 </c:pt>
@@ -1831,16 +2966,97 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>44270.746562499997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44270.99490740741</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44271.24490740741</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44271.494895833333</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44271.743819444448</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44271.967175925929</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44272.217187499999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44272.364363425928</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44272.496574074074</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44272.97351851852</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44272.99658564815</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44273.113668981481</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44273.25203703704</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44273.502060185187</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44273.752071759256</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44274.362974537034</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44274.496574074074</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44274.746608796297</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44274.996631944443</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44275.246608796297</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44275.520902777775</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44275.74659722222</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44275.780185185184</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44275.996562499997</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44276.246562499997</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44276.496550925927</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44276.771909722222</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44276.99659722222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[2]Xp!$G$2:$G$40</c:f>
+              <c:f>[2]Xp!$G$2:$G$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1957,6 +3173,87 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>562.75008333333403</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>889.85583333333398</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>157.88558333333199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2014,10 +3311,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[2]Xp!$A$2:$A$40</c:f>
+              <c:f>[2]Xp!$A$2:$A$67</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>44261.563923611109</c:v>
                 </c:pt>
@@ -2134,16 +3431,97 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>44270.746562499997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44270.99490740741</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44271.24490740741</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44271.494895833333</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44271.743819444448</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44271.967175925929</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44272.217187499999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44272.364363425928</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44272.496574074074</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44272.97351851852</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44272.99658564815</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44273.113668981481</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44273.25203703704</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44273.502060185187</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44273.752071759256</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44274.362974537034</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44274.496574074074</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44274.746608796297</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44274.996631944443</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44275.246608796297</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44275.520902777775</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44275.74659722222</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44275.780185185184</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44275.996562499997</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44276.246562499997</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44276.496550925927</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44276.771909722222</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44276.99659722222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[2]Xp!$H$2:$H$40</c:f>
+              <c:f>[2]Xp!$H$2:$H$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2259,6 +3637,87 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>890.34291666666797</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2268,6 +3727,471 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-B6D9-44D9-936E-F1231DF6C39D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[2]Xp!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Crasymonster26</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[2]Xp!$A$2:$A$67</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>44261.563923611109</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44261.625115740739</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44261.78434027778</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44261.958495370367</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44262.302256944444</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44262.60527777778</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44262.958460648151</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44263.399606481478</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44263.458460648151</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44263.723425925928</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44263.958472222221</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44264.327962962961</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44264.458460648151</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44264.708368055559</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44264.952881944446</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44264.958368055559</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44265.375960648147</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44265.458425925928</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44265.806134259263</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44266.000081018516</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44266.046134259261</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44266.407384259262</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44266.500081018516</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44266.750069444446</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44267.000081018516</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44267.33353009259</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44267.500034722223</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44268.000104166669</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44268.250092592592</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44268.500081018516</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44268.750069444446</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44268.866342592592</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44269.000092592592</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44269.246574074074</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44269.496562499997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44269.996620370373</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44270.24659722222</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44270.49659722222</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44270.746562499997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44270.99490740741</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44271.24490740741</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44271.494895833333</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44271.743819444448</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44271.967175925929</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44272.217187499999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44272.364363425928</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44272.496574074074</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44272.97351851852</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44272.99658564815</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44273.113668981481</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44273.25203703704</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44273.502060185187</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44273.752071759256</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44274.362974537034</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44274.496574074074</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44274.746608796297</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44274.996631944443</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44275.246608796297</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44275.520902777775</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44275.74659722222</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44275.780185185184</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44275.996562499997</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44276.246562499997</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44276.496550925927</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44276.771909722222</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44276.99659722222</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[2]Xp!$I$2:$I$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9607-462E-8581-D568BBE1F464}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2303,7 +4227,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy\ h:mm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2489,7 +4413,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2548,7 +4472,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Jupiter alt</c:v>
+                  <c:v>udontknowme</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2584,46 +4508,46 @@
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44257</c:v>
+                  <c:v>44264</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44258</c:v>
+                  <c:v>44265</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44259</c:v>
+                  <c:v>44266</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44260</c:v>
+                  <c:v>44267</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44261</c:v>
+                  <c:v>44268</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44262</c:v>
+                  <c:v>44269</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44263</c:v>
+                  <c:v>44270</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44264</c:v>
+                  <c:v>44271</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44265</c:v>
+                  <c:v>44272</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44266</c:v>
+                  <c:v>44273</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44267</c:v>
+                  <c:v>44274</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44268</c:v>
+                  <c:v>44275</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44269</c:v>
+                  <c:v>44276</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44270</c:v>
+                  <c:v>44277</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2647,34 +4571,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>653.7404583</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1805.464917</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.221916669999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>77.361833329999996</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>155.9050417</c:v>
+                  <c:v>1452.6059166666601</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0219166669999999</c:v>
+                  <c:v>157.88558333333199</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>997.625</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2695,7 +4619,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sacred Sundy</c:v>
+                  <c:v>Jupiter alt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2731,46 +4655,46 @@
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44257</c:v>
+                  <c:v>44264</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44258</c:v>
+                  <c:v>44265</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44259</c:v>
+                  <c:v>44266</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44260</c:v>
+                  <c:v>44267</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44261</c:v>
+                  <c:v>44268</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44262</c:v>
+                  <c:v>44269</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44263</c:v>
+                  <c:v>44270</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44264</c:v>
+                  <c:v>44271</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44265</c:v>
+                  <c:v>44272</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44266</c:v>
+                  <c:v>44273</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44267</c:v>
+                  <c:v>44274</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44268</c:v>
+                  <c:v>44275</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44269</c:v>
+                  <c:v>44276</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44270</c:v>
+                  <c:v>44277</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2782,25 +4706,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>17.2219166666654</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>77.361833333332399</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>155.905041666665</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1.0219166666684001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>997.625</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -2809,16 +4733,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.545833330000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>188.22866669999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>79.952958330000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -2842,7 +4766,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FallenDark</c:v>
+                  <c:v>Sacred Sundy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2878,46 +4802,46 @@
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44257</c:v>
+                  <c:v>44264</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44258</c:v>
+                  <c:v>44265</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44259</c:v>
+                  <c:v>44266</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44260</c:v>
+                  <c:v>44267</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44261</c:v>
+                  <c:v>44268</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44262</c:v>
+                  <c:v>44269</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44263</c:v>
+                  <c:v>44270</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44264</c:v>
+                  <c:v>44271</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44265</c:v>
+                  <c:v>44272</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44266</c:v>
+                  <c:v>44273</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44267</c:v>
+                  <c:v>44274</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44268</c:v>
+                  <c:v>44275</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44269</c:v>
+                  <c:v>44276</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44270</c:v>
+                  <c:v>44277</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2935,16 +4859,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>11.545833333333499</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>188.228666666669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>79.952958333331395</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -2956,13 +4880,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>221.5406667</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.0507500000000007</c:v>
+                  <c:v>890.34291666666797</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -2989,7 +4913,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ADSCENCE</c:v>
+                  <c:v>FallenDark</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3025,46 +4949,46 @@
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44257</c:v>
+                  <c:v>44264</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44258</c:v>
+                  <c:v>44265</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44259</c:v>
+                  <c:v>44266</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44260</c:v>
+                  <c:v>44267</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44261</c:v>
+                  <c:v>44268</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44262</c:v>
+                  <c:v>44269</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44263</c:v>
+                  <c:v>44270</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44264</c:v>
+                  <c:v>44271</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44265</c:v>
+                  <c:v>44272</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44266</c:v>
+                  <c:v>44273</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44267</c:v>
+                  <c:v>44274</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44268</c:v>
+                  <c:v>44275</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44269</c:v>
+                  <c:v>44276</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44270</c:v>
+                  <c:v>44277</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3082,13 +5006,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>221.540666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>9.0507499999999901</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -3097,10 +5021,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>79.262166669999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>125.69475</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -3136,7 +5060,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Derpydog495</c:v>
+                  <c:v>ADSCENCE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3172,46 +5096,46 @@
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44257</c:v>
+                  <c:v>44264</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44258</c:v>
+                  <c:v>44265</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44259</c:v>
+                  <c:v>44266</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44260</c:v>
+                  <c:v>44267</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44261</c:v>
+                  <c:v>44268</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44262</c:v>
+                  <c:v>44269</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44263</c:v>
+                  <c:v>44270</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44264</c:v>
+                  <c:v>44271</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44265</c:v>
+                  <c:v>44272</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44266</c:v>
+                  <c:v>44273</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44267</c:v>
+                  <c:v>44274</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44268</c:v>
+                  <c:v>44275</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44269</c:v>
+                  <c:v>44276</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44270</c:v>
+                  <c:v>44277</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3223,10 +5147,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>79.262166666666602</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>125.69475</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -3262,7 +5186,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>109.1118333</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3283,7 +5207,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Lizzy 2</c:v>
+                  <c:v>Derpydog495</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3319,46 +5243,46 @@
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44257</c:v>
+                  <c:v>44264</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44258</c:v>
+                  <c:v>44265</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44259</c:v>
+                  <c:v>44266</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44260</c:v>
+                  <c:v>44267</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44261</c:v>
+                  <c:v>44268</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44262</c:v>
+                  <c:v>44269</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44263</c:v>
+                  <c:v>44270</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44264</c:v>
+                  <c:v>44271</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44265</c:v>
+                  <c:v>44272</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44266</c:v>
+                  <c:v>44273</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44267</c:v>
+                  <c:v>44274</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44268</c:v>
+                  <c:v>44275</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44269</c:v>
+                  <c:v>44276</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44270</c:v>
+                  <c:v>44277</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3388,7 +5312,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>109.11183333333599</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -3406,7 +5330,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.50449999999999995</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -3430,7 +5354,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>udontknowme</c:v>
+                  <c:v>Lizzy 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3472,46 +5396,46 @@
                 <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>44257</c:v>
+                  <c:v>44264</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44258</c:v>
+                  <c:v>44265</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44259</c:v>
+                  <c:v>44266</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44260</c:v>
+                  <c:v>44267</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44261</c:v>
+                  <c:v>44268</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44262</c:v>
+                  <c:v>44269</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44263</c:v>
+                  <c:v>44270</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44264</c:v>
+                  <c:v>44271</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44265</c:v>
+                  <c:v>44272</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44266</c:v>
+                  <c:v>44273</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44267</c:v>
+                  <c:v>44274</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44268</c:v>
+                  <c:v>44275</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44269</c:v>
+                  <c:v>44276</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44270</c:v>
+                  <c:v>44277</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3538,7 +5462,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.50450000000000705</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -3571,6 +5495,159 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-A39A-419E-9B42-0CA5851B4DD3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]XpPerDay!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Crasymonster26</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]XpPerDay!$A$2:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>44264</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44265</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44266</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44267</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44268</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44269</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44270</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44271</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44272</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44273</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44274</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44275</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44276</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44277</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]XpPerDay!$I$2:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E797-4810-B877-35FC12B0B774}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3792,7 +5869,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3882,10 +5959,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[3]CumulativeXp!$A$2:$A$40</c:f>
+              <c:f>[3]CumulativeXp!$A$2:$A$67</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>44261.563923611109</c:v>
                 </c:pt>
@@ -4002,16 +6079,97 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>44270.746562499997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44270.99490740741</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44271.24490740741</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44271.494895833333</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44271.743819444448</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44271.967175925929</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44272.217187499999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44272.364363425928</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44272.496574074074</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44272.97351851852</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44272.99658564815</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44273.113668981481</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44273.25203703704</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44273.502060185187</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44273.752071759256</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44274.362974537034</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44274.496574074074</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44274.746608796297</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44274.996631944443</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44275.246608796297</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44275.520902777775</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44275.74659722222</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44275.780185185184</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44275.996562499997</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44276.246562499997</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44276.496550925927</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44276.771909722222</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44276.99659722222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[3]CumulativeXp!$B$2:$B$40</c:f>
+              <c:f>[3]CumulativeXp!$B$2:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>1807.138375</c:v>
                 </c:pt>
@@ -4127,6 +6285,87 @@
                   <c:v>2012.0952916666599</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>2012.0952916666599</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2012.0952916666599</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2012.0952916666599</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2012.0952916666599</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2012.0952916666599</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2012.0952916666599</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2012.0952916666599</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2012.0952916666599</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2012.0952916666599</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2012.0952916666599</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2012.0952916666599</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2012.0952916666599</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2012.0952916666599</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2012.0952916666599</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2012.0952916666599</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2012.0952916666599</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2012.0952916666599</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2012.0952916666599</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2012.0952916666599</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2012.0952916666599</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2012.0952916666599</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2012.0952916666599</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2012.0952916666599</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2012.0952916666599</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2012.0952916666599</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2012.0952916666599</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2012.0952916666599</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>2012.0952916666599</c:v>
                 </c:pt>
               </c:numCache>
@@ -4179,10 +6418,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[3]CumulativeXp!$A$2:$A$40</c:f>
+              <c:f>[3]CumulativeXp!$A$2:$A$67</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>44261.563923611109</c:v>
                 </c:pt>
@@ -4299,16 +6538,97 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>44270.746562499997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44270.99490740741</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44271.24490740741</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44271.494895833333</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44271.743819444448</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44271.967175925929</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44272.217187499999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44272.364363425928</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44272.496574074074</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44272.97351851852</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44272.99658564815</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44273.113668981481</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44273.25203703704</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44273.502060185187</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44273.752071759256</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44274.362974537034</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44274.496574074074</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44274.746608796297</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44274.996631944443</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44275.246608796297</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44275.520902777775</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44275.74659722222</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44275.780185185184</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44275.996562499997</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44276.246562499997</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44276.496550925927</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44276.771909722222</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44276.99659722222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[3]CumulativeXp!$C$2:$C$40</c:f>
+              <c:f>[3]CumulativeXp!$C$2:$C$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>40817.273208333303</c:v>
                 </c:pt>
@@ -4424,6 +6744,87 @@
                   <c:v>40817.273208333303</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>40926.385041666603</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40926.385041666603</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40926.385041666603</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>40926.385041666603</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>40926.385041666603</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>40926.385041666603</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>40926.385041666603</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>40926.385041666603</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>40926.385041666603</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>40926.385041666603</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>40926.385041666603</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>40926.385041666603</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>40926.385041666603</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>40926.385041666603</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>40926.385041666603</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>40926.385041666603</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>40926.385041666603</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>40926.385041666603</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>40926.385041666603</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>40926.385041666603</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>40926.385041666603</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>40926.385041666603</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>40926.385041666603</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>40926.385041666603</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>40926.385041666603</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>40926.385041666603</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>40926.385041666603</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>40926.385041666603</c:v>
                 </c:pt>
               </c:numCache>
@@ -4476,10 +6877,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[3]CumulativeXp!$A$2:$A$40</c:f>
+              <c:f>[3]CumulativeXp!$A$2:$A$67</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>44261.563923611109</c:v>
                 </c:pt>
@@ -4596,16 +6997,97 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>44270.746562499997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44270.99490740741</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44271.24490740741</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44271.494895833333</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44271.743819444448</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44271.967175925929</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44272.217187499999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44272.364363425928</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44272.496574074074</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44272.97351851852</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44272.99658564815</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44273.113668981481</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44273.25203703704</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44273.502060185187</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44273.752071759256</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44274.362974537034</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44274.496574074074</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44274.746608796297</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44274.996631944443</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44275.246608796297</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44275.520902777775</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44275.74659722222</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44275.780185185184</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44275.996562499997</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44276.246562499997</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44276.496550925927</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44276.771909722222</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44276.99659722222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[3]CumulativeXp!$D$2:$D$40</c:f>
+              <c:f>[3]CumulativeXp!$D$2:$D$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>434.37391666666599</c:v>
                 </c:pt>
@@ -4721,6 +7203,87 @@
                   <c:v>664.96533333333298</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>664.96533333333298</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>664.96533333333298</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>664.96533333333298</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>664.96533333333298</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>664.96533333333298</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>664.96533333333298</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>664.96533333333298</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>664.96533333333298</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>664.96533333333298</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>664.96533333333298</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>664.96533333333298</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>664.96533333333298</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>664.96533333333298</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>664.96533333333298</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>664.96533333333298</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>664.96533333333298</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>664.96533333333298</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>664.96533333333298</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>664.96533333333298</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>664.96533333333298</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>664.96533333333298</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>664.96533333333298</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>664.96533333333298</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>664.96533333333298</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>664.96533333333298</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>664.96533333333298</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>664.96533333333298</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>664.96533333333298</c:v>
                 </c:pt>
               </c:numCache>
@@ -4773,10 +7336,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[3]CumulativeXp!$A$2:$A$40</c:f>
+              <c:f>[3]CumulativeXp!$A$2:$A$67</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>44261.563923611109</c:v>
                 </c:pt>
@@ -4893,16 +7456,97 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>44270.746562499997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44270.99490740741</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44271.24490740741</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44271.494895833333</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44271.743819444448</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44271.967175925929</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44272.217187499999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44272.364363425928</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44272.496574074074</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44272.97351851852</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44272.99658564815</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44273.113668981481</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44273.25203703704</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44273.502060185187</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44273.752071759256</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44274.362974537034</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44274.496574074074</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44274.746608796297</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44274.996631944443</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44275.246608796297</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44275.520902777775</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44275.74659722222</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44275.780185185184</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44275.996562499997</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44276.246562499997</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44276.496550925927</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44276.771909722222</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44276.99659722222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[3]CumulativeXp!$E$2:$E$40</c:f>
+              <c:f>[3]CumulativeXp!$E$2:$E$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>20664.2718333333</c:v>
                 </c:pt>
@@ -5018,6 +7662,87 @@
                   <c:v>23374.9879166666</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>24372.6129166666</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>24372.6129166666</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>24372.6129166666</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>24372.6129166666</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>24372.6129166666</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>24372.6129166666</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>24372.6129166666</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>24372.6129166666</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>24372.6129166666</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>24372.6129166666</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>24372.6129166666</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>24372.6129166666</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>24372.6129166666</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>24372.6129166666</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>24372.6129166666</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>24372.6129166666</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>24372.6129166666</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>24372.6129166666</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>24372.6129166666</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>24372.6129166666</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>24372.6129166666</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>24372.6129166666</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>24372.6129166666</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>24372.6129166666</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>24372.6129166666</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>24372.6129166666</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>24372.6129166666</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>24372.6129166666</c:v>
                 </c:pt>
               </c:numCache>
@@ -5070,10 +7795,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[3]CumulativeXp!$A$2:$A$40</c:f>
+              <c:f>[3]CumulativeXp!$A$2:$A$67</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>44261.563923611109</c:v>
                 </c:pt>
@@ -5190,16 +7915,97 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>44270.746562499997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44270.99490740741</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44271.24490740741</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44271.494895833333</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44271.743819444448</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44271.967175925929</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44272.217187499999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44272.364363425928</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44272.496574074074</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44272.97351851852</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44272.99658564815</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44273.113668981481</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44273.25203703704</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44273.502060185187</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44273.752071759256</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44274.362974537034</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44274.496574074074</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44274.746608796297</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44274.996631944443</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44275.246608796297</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44275.520902777775</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44275.74659722222</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44275.780185185184</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44275.996562499997</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44276.246562499997</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44276.496550925927</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44276.771909722222</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44276.99659722222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[3]CumulativeXp!$F$2:$F$40</c:f>
+              <c:f>[3]CumulativeXp!$F$2:$F$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>6677.1041666666597</c:v>
                 </c:pt>
@@ -5315,6 +8121,87 @@
                   <c:v>6677.6086666666597</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>6677.6086666666597</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6677.6086666666597</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6677.6086666666597</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6677.6086666666597</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6677.6086666666597</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6677.6086666666597</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6677.6086666666597</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6677.6086666666597</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6677.6086666666597</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6677.6086666666597</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6677.6086666666597</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6677.6086666666597</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6677.6086666666597</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6677.6086666666597</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6677.6086666666597</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6677.6086666666597</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6677.6086666666597</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6677.6086666666597</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6677.6086666666597</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6677.6086666666597</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6677.6086666666597</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6677.6086666666597</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6677.6086666666597</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6677.6086666666597</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6677.6086666666597</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6677.6086666666597</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6677.6086666666597</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>6677.6086666666597</c:v>
                 </c:pt>
               </c:numCache>
@@ -5367,10 +8254,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[3]CumulativeXp!$A$2:$A$40</c:f>
+              <c:f>[3]CumulativeXp!$A$2:$A$67</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>44261.563923611109</c:v>
                 </c:pt>
@@ -5487,16 +8374,97 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>44270.746562499997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44270.99490740741</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44271.24490740741</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44271.494895833333</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44271.743819444448</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44271.967175925929</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44272.217187499999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44272.364363425928</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44272.496574074074</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44272.97351851852</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44272.99658564815</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44273.113668981481</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44273.25203703704</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44273.502060185187</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44273.752071759256</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44274.362974537034</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44274.496574074074</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44274.746608796297</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44274.996631944443</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44275.246608796297</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44275.520902777775</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44275.74659722222</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44275.780185185184</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44275.996562499997</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44276.246562499997</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44276.496550925927</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44276.771909722222</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44276.99659722222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[3]CumulativeXp!$G$2:$G$40</c:f>
+              <c:f>[3]CumulativeXp!$G$2:$G$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>6778.5787499999997</c:v>
                 </c:pt>
@@ -5613,6 +8581,87 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>6778.5787499999997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6778.5787499999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6778.5787499999997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6778.5787499999997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6778.5787499999997</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6778.5787499999997</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6778.5787499999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6778.5787499999997</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6778.5787499999997</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6778.5787499999997</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6778.5787499999997</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6778.5787499999997</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6778.5787499999997</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6778.5787499999997</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6778.5787499999997</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6778.5787499999997</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6778.5787499999997</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6778.5787499999997</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6778.5787499999997</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6778.5787499999997</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6778.5787499999997</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7341.3288333333303</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7341.3288333333303</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>8231.1846666666606</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8231.1846666666606</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>8231.1846666666606</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8231.1846666666606</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8389.0702500000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5670,10 +8719,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[3]CumulativeXp!$A$2:$A$40</c:f>
+              <c:f>[3]CumulativeXp!$A$2:$A$67</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>44261.563923611109</c:v>
                 </c:pt>
@@ -5790,16 +8839,97 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>44270.746562499997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44270.99490740741</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44271.24490740741</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44271.494895833333</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44271.743819444448</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44271.967175925929</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44272.217187499999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44272.364363425928</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44272.496574074074</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44272.97351851852</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44272.99658564815</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44273.113668981481</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44273.25203703704</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44273.502060185187</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44273.752071759256</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44274.362974537034</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44274.496574074074</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44274.746608796297</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44274.996631944443</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44275.246608796297</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44275.520902777775</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44275.74659722222</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44275.780185185184</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44275.996562499997</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44276.246562499997</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44276.496550925927</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44276.771909722222</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44276.99659722222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[3]CumulativeXp!$H$2:$H$40</c:f>
+              <c:f>[3]CumulativeXp!$H$2:$H$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5916,6 +9046,87 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>21837.4898333333</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>21837.4898333333</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>21837.4898333333</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>21837.4898333333</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>21837.4898333333</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>21837.4898333333</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>21837.4898333333</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>21837.4898333333</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>21837.4898333333</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>21837.4898333333</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>21837.4898333333</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>21837.4898333333</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>21837.4898333333</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>21837.4898333333</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>21837.4898333333</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>21837.4898333333</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>21837.4898333333</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>21837.4898333333</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>21837.4898333333</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>21837.4898333333</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>21837.4898333333</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>21837.4898333333</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>21837.4898333333</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>22727.832750000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>22727.832750000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>22727.832750000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>22727.832750000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>22727.832750000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5924,6 +9135,471 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-1798-4A64-9D2D-CE0D52847486}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[3]CumulativeXp!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Crasymonster26</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[3]CumulativeXp!$A$2:$A$67</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>44261.563923611109</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44261.625115740739</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44261.78434027778</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44261.958495370367</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44262.302256944444</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44262.60527777778</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44262.958460648151</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44263.399606481478</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44263.458460648151</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44263.723425925928</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44263.958472222221</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44264.327962962961</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44264.458460648151</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44264.708368055559</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44264.952881944446</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44264.958368055559</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44265.375960648147</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44265.458425925928</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44265.806134259263</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44266.000081018516</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44266.046134259261</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44266.407384259262</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44266.500081018516</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44266.750069444446</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44267.000081018516</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44267.33353009259</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44267.500034722223</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44268.000104166669</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44268.250092592592</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44268.500081018516</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44268.750069444446</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44268.866342592592</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44269.000092592592</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44269.246574074074</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44269.496562499997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44269.996620370373</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44270.24659722222</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44270.49659722222</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44270.746562499997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44270.99490740741</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44271.24490740741</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44271.494895833333</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44271.743819444448</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44271.967175925929</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44272.217187499999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44272.364363425928</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44272.496574074074</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44272.97351851852</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44272.99658564815</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44273.113668981481</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44273.25203703704</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44273.502060185187</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44273.752071759256</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44274.362974537034</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44274.496574074074</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44274.746608796297</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44274.996631944443</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44275.246608796297</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44275.520902777775</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44275.74659722222</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44275.780185185184</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44275.996562499997</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44276.246562499997</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44276.496550925927</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44276.771909722222</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44276.99659722222</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[3]CumulativeXp!$I$2:$I$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3408.6900416666599</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3408.6900416666599</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3408.6900416666599</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3408.6900416666599</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3408.6900416666599</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3408.6900416666599</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3408.6900416666599</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3408.6900416666599</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3408.6900416666599</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3408.6900416666599</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3408.6900416666599</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3408.6900416666599</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3408.6900416666599</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3408.6900416666599</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3408.6900416666599</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3408.6900416666599</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3408.6900416666599</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3408.6900416666599</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3408.6900416666599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D5BE-4985-9353-F728F1D7CC49}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5959,7 +9635,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy\ h:mm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6226,6 +9902,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7813,7 +11529,564 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{235D9B09-C1C0-4FB5-B5D2-780860A74E36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7854,7 +12127,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7895,7 +12168,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7949,36 +12222,39 @@
             <v>Timestamp</v>
           </cell>
           <cell r="B1" t="str">
+            <v>udontknowme</v>
+          </cell>
+          <cell r="C1" t="str">
             <v>Jupiter alt</v>
           </cell>
-          <cell r="C1" t="str">
+          <cell r="D1" t="str">
             <v>Sacred Sundy</v>
           </cell>
-          <cell r="D1" t="str">
+          <cell r="E1" t="str">
             <v>FallenDark</v>
           </cell>
-          <cell r="E1" t="str">
+          <cell r="F1" t="str">
             <v>ADSCENCE</v>
           </cell>
-          <cell r="F1" t="str">
+          <cell r="G1" t="str">
             <v>Derpydog495</v>
           </cell>
-          <cell r="G1" t="str">
+          <cell r="H1" t="str">
             <v>Lizzy 2</v>
           </cell>
-          <cell r="H1" t="str">
-            <v>udontknowme</v>
+          <cell r="I1" t="str">
+            <v>Crasymonster26</v>
           </cell>
         </row>
         <row r="2">
           <cell r="A2">
-            <v>44257</v>
+            <v>44264</v>
           </cell>
           <cell r="B2">
             <v>0</v>
           </cell>
           <cell r="C2">
-            <v>0</v>
+            <v>17.2219166666654</v>
           </cell>
           <cell r="D2">
             <v>0</v>
@@ -7987,18 +12263,21 @@
             <v>0</v>
           </cell>
           <cell r="F2">
-            <v>0</v>
+            <v>79.262166666666602</v>
           </cell>
           <cell r="G2">
             <v>0</v>
           </cell>
           <cell r="H2">
+            <v>0</v>
+          </cell>
+          <cell r="I2">
             <v>0</v>
           </cell>
         </row>
         <row r="3">
           <cell r="A3">
-            <v>44258</v>
+            <v>44265</v>
           </cell>
           <cell r="B3">
             <v>0</v>
@@ -8013,30 +12292,33 @@
             <v>0</v>
           </cell>
           <cell r="F3">
-            <v>0</v>
+            <v>125.69475</v>
           </cell>
           <cell r="G3">
             <v>0</v>
           </cell>
           <cell r="H3">
+            <v>0</v>
+          </cell>
+          <cell r="I3">
             <v>0</v>
           </cell>
         </row>
         <row r="4">
           <cell r="A4">
-            <v>44259</v>
+            <v>44266</v>
           </cell>
           <cell r="B4">
             <v>0</v>
           </cell>
           <cell r="C4">
-            <v>0</v>
+            <v>77.361833333332399</v>
           </cell>
           <cell r="D4">
-            <v>0</v>
+            <v>11.545833333333499</v>
           </cell>
           <cell r="E4">
-            <v>0</v>
+            <v>221.540666666666</v>
           </cell>
           <cell r="F4">
             <v>0</v>
@@ -8045,12 +12327,15 @@
             <v>0</v>
           </cell>
           <cell r="H4">
+            <v>0</v>
+          </cell>
+          <cell r="I4">
             <v>0</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5">
-            <v>44260</v>
+            <v>44267</v>
           </cell>
           <cell r="B5">
             <v>0</v>
@@ -8071,24 +12356,27 @@
             <v>0</v>
           </cell>
           <cell r="H5">
+            <v>0</v>
+          </cell>
+          <cell r="I5">
             <v>0</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6">
-            <v>44261</v>
+            <v>44268</v>
           </cell>
           <cell r="B6">
-            <v>653.7404583</v>
+            <v>0</v>
           </cell>
           <cell r="C6">
-            <v>0</v>
+            <v>155.905041666665</v>
           </cell>
           <cell r="D6">
-            <v>0</v>
+            <v>188.228666666669</v>
           </cell>
           <cell r="E6">
-            <v>0</v>
+            <v>9.0507499999999901</v>
           </cell>
           <cell r="F6">
             <v>0</v>
@@ -8097,21 +12385,24 @@
             <v>0</v>
           </cell>
           <cell r="H6">
+            <v>0</v>
+          </cell>
+          <cell r="I6">
             <v>0</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7">
-            <v>44262</v>
+            <v>44269</v>
           </cell>
           <cell r="B7">
-            <v>1805.464917</v>
+            <v>0</v>
           </cell>
           <cell r="C7">
-            <v>0</v>
+            <v>1.0219166666684001</v>
           </cell>
           <cell r="D7">
-            <v>0</v>
+            <v>79.952958333331395</v>
           </cell>
           <cell r="E7">
             <v>0</v>
@@ -8123,18 +12414,21 @@
             <v>0</v>
           </cell>
           <cell r="H7">
+            <v>0.50450000000000705</v>
+          </cell>
+          <cell r="I7">
             <v>0</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8">
-            <v>44263</v>
+            <v>44270</v>
           </cell>
           <cell r="B8">
             <v>0</v>
           </cell>
           <cell r="C8">
-            <v>0</v>
+            <v>997.625</v>
           </cell>
           <cell r="D8">
             <v>0</v>
@@ -8146,18 +12440,21 @@
             <v>0</v>
           </cell>
           <cell r="G8">
-            <v>0</v>
+            <v>109.11183333333599</v>
           </cell>
           <cell r="H8">
+            <v>0</v>
+          </cell>
+          <cell r="I8">
             <v>0</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9">
-            <v>44264</v>
+            <v>44271</v>
           </cell>
           <cell r="B9">
-            <v>17.221916669999999</v>
+            <v>0</v>
           </cell>
           <cell r="C9">
             <v>0</v>
@@ -8166,7 +12463,7 @@
             <v>0</v>
           </cell>
           <cell r="E9">
-            <v>79.262166669999999</v>
+            <v>0</v>
           </cell>
           <cell r="F9">
             <v>0</v>
@@ -8175,12 +12472,15 @@
             <v>0</v>
           </cell>
           <cell r="H9">
+            <v>0</v>
+          </cell>
+          <cell r="I9">
             <v>0</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10">
-            <v>44265</v>
+            <v>44272</v>
           </cell>
           <cell r="B10">
             <v>0</v>
@@ -8192,7 +12492,7 @@
             <v>0</v>
           </cell>
           <cell r="E10">
-            <v>125.69475</v>
+            <v>0</v>
           </cell>
           <cell r="F10">
             <v>0</v>
@@ -8201,21 +12501,24 @@
             <v>0</v>
           </cell>
           <cell r="H10">
+            <v>0</v>
+          </cell>
+          <cell r="I10">
             <v>0</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11">
-            <v>44266</v>
+            <v>44273</v>
           </cell>
           <cell r="B11">
-            <v>77.361833329999996</v>
+            <v>0</v>
           </cell>
           <cell r="C11">
-            <v>11.545833330000001</v>
+            <v>0</v>
           </cell>
           <cell r="D11">
-            <v>221.5406667</v>
+            <v>0</v>
           </cell>
           <cell r="E11">
             <v>0</v>
@@ -8227,12 +12530,15 @@
             <v>0</v>
           </cell>
           <cell r="H11">
+            <v>0</v>
+          </cell>
+          <cell r="I11">
             <v>0</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12">
-            <v>44267</v>
+            <v>44274</v>
           </cell>
           <cell r="B12">
             <v>0</v>
@@ -8253,21 +12559,24 @@
             <v>0</v>
           </cell>
           <cell r="H12">
+            <v>0</v>
+          </cell>
+          <cell r="I12">
             <v>0</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13">
-            <v>44268</v>
+            <v>44275</v>
           </cell>
           <cell r="B13">
-            <v>155.9050417</v>
+            <v>1452.6059166666601</v>
           </cell>
           <cell r="C13">
-            <v>188.22866669999999</v>
+            <v>0</v>
           </cell>
           <cell r="D13">
-            <v>9.0507500000000007</v>
+            <v>890.34291666666797</v>
           </cell>
           <cell r="E13">
             <v>0</v>
@@ -8279,18 +12588,21 @@
             <v>0</v>
           </cell>
           <cell r="H13">
+            <v>0</v>
+          </cell>
+          <cell r="I13">
             <v>0</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14">
-            <v>44269</v>
+            <v>44276</v>
           </cell>
           <cell r="B14">
-            <v>1.0219166669999999</v>
+            <v>157.88558333333199</v>
           </cell>
           <cell r="C14">
-            <v>79.952958330000001</v>
+            <v>0</v>
           </cell>
           <cell r="D14">
             <v>0</v>
@@ -8302,18 +12614,21 @@
             <v>0</v>
           </cell>
           <cell r="G14">
-            <v>0.50449999999999995</v>
+            <v>0</v>
           </cell>
           <cell r="H14">
+            <v>0</v>
+          </cell>
+          <cell r="I14">
             <v>0</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15">
-            <v>44270</v>
+            <v>44277</v>
           </cell>
           <cell r="B15">
-            <v>997.625</v>
+            <v>0</v>
           </cell>
           <cell r="C15">
             <v>0</v>
@@ -8325,12 +12640,15 @@
             <v>0</v>
           </cell>
           <cell r="F15">
-            <v>109.1118333</v>
+            <v>0</v>
           </cell>
           <cell r="G15">
             <v>0</v>
           </cell>
           <cell r="H15">
+            <v>0</v>
+          </cell>
+          <cell r="I15">
             <v>0</v>
           </cell>
         </row>
@@ -8370,6 +12688,9 @@
           <cell r="H1" t="str">
             <v>Sacred Sundy</v>
           </cell>
+          <cell r="I1" t="str">
+            <v>Crasymonster26</v>
+          </cell>
         </row>
         <row r="2">
           <cell r="A2">
@@ -8396,6 +12717,9 @@
           <cell r="H2">
             <v>0</v>
           </cell>
+          <cell r="I2">
+            <v>0</v>
+          </cell>
         </row>
         <row r="3">
           <cell r="A3">
@@ -8422,6 +12746,9 @@
           <cell r="H3">
             <v>0</v>
           </cell>
+          <cell r="I3">
+            <v>0</v>
+          </cell>
         </row>
         <row r="4">
           <cell r="A4">
@@ -8448,6 +12775,9 @@
           <cell r="H4">
             <v>0</v>
           </cell>
+          <cell r="I4">
+            <v>0</v>
+          </cell>
         </row>
         <row r="5">
           <cell r="A5">
@@ -8474,6 +12804,9 @@
           <cell r="H5">
             <v>0</v>
           </cell>
+          <cell r="I5">
+            <v>0</v>
+          </cell>
         </row>
         <row r="6">
           <cell r="A6">
@@ -8500,6 +12833,9 @@
           <cell r="H6">
             <v>0</v>
           </cell>
+          <cell r="I6">
+            <v>0</v>
+          </cell>
         </row>
         <row r="7">
           <cell r="A7">
@@ -8526,6 +12862,9 @@
           <cell r="H7">
             <v>0</v>
           </cell>
+          <cell r="I7">
+            <v>0</v>
+          </cell>
         </row>
         <row r="8">
           <cell r="A8">
@@ -8552,6 +12891,9 @@
           <cell r="H8">
             <v>0</v>
           </cell>
+          <cell r="I8">
+            <v>0</v>
+          </cell>
         </row>
         <row r="9">
           <cell r="A9">
@@ -8578,6 +12920,9 @@
           <cell r="H9">
             <v>0</v>
           </cell>
+          <cell r="I9">
+            <v>0</v>
+          </cell>
         </row>
         <row r="10">
           <cell r="A10">
@@ -8604,6 +12949,9 @@
           <cell r="H10">
             <v>0</v>
           </cell>
+          <cell r="I10">
+            <v>0</v>
+          </cell>
         </row>
         <row r="11">
           <cell r="A11">
@@ -8630,6 +12978,9 @@
           <cell r="H11">
             <v>0</v>
           </cell>
+          <cell r="I11">
+            <v>0</v>
+          </cell>
         </row>
         <row r="12">
           <cell r="A12">
@@ -8656,6 +13007,9 @@
           <cell r="H12">
             <v>0</v>
           </cell>
+          <cell r="I12">
+            <v>0</v>
+          </cell>
         </row>
         <row r="13">
           <cell r="A13">
@@ -8682,6 +13036,9 @@
           <cell r="H13">
             <v>0</v>
           </cell>
+          <cell r="I13">
+            <v>0</v>
+          </cell>
         </row>
         <row r="14">
           <cell r="A14">
@@ -8708,6 +13065,9 @@
           <cell r="H14">
             <v>0</v>
           </cell>
+          <cell r="I14">
+            <v>0</v>
+          </cell>
         </row>
         <row r="15">
           <cell r="A15">
@@ -8734,6 +13094,9 @@
           <cell r="H15">
             <v>0</v>
           </cell>
+          <cell r="I15">
+            <v>0</v>
+          </cell>
         </row>
         <row r="16">
           <cell r="A16">
@@ -8760,6 +13123,9 @@
           <cell r="H16">
             <v>0</v>
           </cell>
+          <cell r="I16">
+            <v>0</v>
+          </cell>
         </row>
         <row r="17">
           <cell r="A17">
@@ -8786,6 +13152,9 @@
           <cell r="H17">
             <v>0</v>
           </cell>
+          <cell r="I17">
+            <v>0</v>
+          </cell>
         </row>
         <row r="18">
           <cell r="A18">
@@ -8812,6 +13181,9 @@
           <cell r="H18">
             <v>0</v>
           </cell>
+          <cell r="I18">
+            <v>0</v>
+          </cell>
         </row>
         <row r="19">
           <cell r="A19">
@@ -8838,6 +13210,9 @@
           <cell r="H19">
             <v>0</v>
           </cell>
+          <cell r="I19">
+            <v>0</v>
+          </cell>
         </row>
         <row r="20">
           <cell r="A20">
@@ -8864,6 +13239,9 @@
           <cell r="H20">
             <v>0</v>
           </cell>
+          <cell r="I20">
+            <v>0</v>
+          </cell>
         </row>
         <row r="21">
           <cell r="A21">
@@ -8890,6 +13268,9 @@
           <cell r="H21">
             <v>0</v>
           </cell>
+          <cell r="I21">
+            <v>0</v>
+          </cell>
         </row>
         <row r="22">
           <cell r="A22">
@@ -8916,6 +13297,9 @@
           <cell r="H22">
             <v>0</v>
           </cell>
+          <cell r="I22">
+            <v>0</v>
+          </cell>
         </row>
         <row r="23">
           <cell r="A23">
@@ -8942,6 +13326,9 @@
           <cell r="H23">
             <v>0</v>
           </cell>
+          <cell r="I23">
+            <v>0</v>
+          </cell>
         </row>
         <row r="24">
           <cell r="A24">
@@ -8968,6 +13355,9 @@
           <cell r="H24">
             <v>0</v>
           </cell>
+          <cell r="I24">
+            <v>0</v>
+          </cell>
         </row>
         <row r="25">
           <cell r="A25">
@@ -8994,6 +13384,9 @@
           <cell r="H25">
             <v>11.545833333333499</v>
           </cell>
+          <cell r="I25">
+            <v>0</v>
+          </cell>
         </row>
         <row r="26">
           <cell r="A26">
@@ -9020,6 +13413,9 @@
           <cell r="H26">
             <v>0</v>
           </cell>
+          <cell r="I26">
+            <v>0</v>
+          </cell>
         </row>
         <row r="27">
           <cell r="A27">
@@ -9046,6 +13442,9 @@
           <cell r="H27">
             <v>0</v>
           </cell>
+          <cell r="I27">
+            <v>0</v>
+          </cell>
         </row>
         <row r="28">
           <cell r="A28">
@@ -9072,6 +13471,9 @@
           <cell r="H28">
             <v>0</v>
           </cell>
+          <cell r="I28">
+            <v>0</v>
+          </cell>
         </row>
         <row r="29">
           <cell r="A29">
@@ -9098,6 +13500,9 @@
           <cell r="H29">
             <v>0</v>
           </cell>
+          <cell r="I29">
+            <v>0</v>
+          </cell>
         </row>
         <row r="30">
           <cell r="A30">
@@ -9124,6 +13529,9 @@
           <cell r="H30">
             <v>0</v>
           </cell>
+          <cell r="I30">
+            <v>0</v>
+          </cell>
         </row>
         <row r="31">
           <cell r="A31">
@@ -9150,6 +13558,9 @@
           <cell r="H31">
             <v>0</v>
           </cell>
+          <cell r="I31">
+            <v>0</v>
+          </cell>
         </row>
         <row r="32">
           <cell r="A32">
@@ -9176,6 +13587,9 @@
           <cell r="H32">
             <v>188.228666666669</v>
           </cell>
+          <cell r="I32">
+            <v>0</v>
+          </cell>
         </row>
         <row r="33">
           <cell r="A33">
@@ -9202,6 +13616,9 @@
           <cell r="H33">
             <v>0</v>
           </cell>
+          <cell r="I33">
+            <v>0</v>
+          </cell>
         </row>
         <row r="34">
           <cell r="A34">
@@ -9228,6 +13645,9 @@
           <cell r="H34">
             <v>0</v>
           </cell>
+          <cell r="I34">
+            <v>0</v>
+          </cell>
         </row>
         <row r="35">
           <cell r="A35">
@@ -9254,6 +13674,9 @@
           <cell r="H35">
             <v>0</v>
           </cell>
+          <cell r="I35">
+            <v>0</v>
+          </cell>
         </row>
         <row r="36">
           <cell r="A36">
@@ -9280,6 +13703,9 @@
           <cell r="H36">
             <v>0</v>
           </cell>
+          <cell r="I36">
+            <v>0</v>
+          </cell>
         </row>
         <row r="37">
           <cell r="A37">
@@ -9306,6 +13732,9 @@
           <cell r="H37">
             <v>79.952958333331395</v>
           </cell>
+          <cell r="I37">
+            <v>0</v>
+          </cell>
         </row>
         <row r="38">
           <cell r="A38">
@@ -9332,6 +13761,9 @@
           <cell r="H38">
             <v>0</v>
           </cell>
+          <cell r="I38">
+            <v>0</v>
+          </cell>
         </row>
         <row r="39">
           <cell r="A39">
@@ -9358,6 +13790,9 @@
           <cell r="H39">
             <v>0</v>
           </cell>
+          <cell r="I39">
+            <v>0</v>
+          </cell>
         </row>
         <row r="40">
           <cell r="A40">
@@ -9382,6 +13817,792 @@
             <v>0</v>
           </cell>
           <cell r="H40">
+            <v>0</v>
+          </cell>
+          <cell r="I40">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>44270.99490740741</v>
+          </cell>
+          <cell r="B41">
+            <v>0</v>
+          </cell>
+          <cell r="C41">
+            <v>0</v>
+          </cell>
+          <cell r="D41">
+            <v>0</v>
+          </cell>
+          <cell r="E41">
+            <v>0</v>
+          </cell>
+          <cell r="F41">
+            <v>0</v>
+          </cell>
+          <cell r="G41">
+            <v>0</v>
+          </cell>
+          <cell r="H41">
+            <v>0</v>
+          </cell>
+          <cell r="I41">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>44271.24490740741</v>
+          </cell>
+          <cell r="B42">
+            <v>0</v>
+          </cell>
+          <cell r="C42">
+            <v>0</v>
+          </cell>
+          <cell r="D42">
+            <v>0</v>
+          </cell>
+          <cell r="E42">
+            <v>0</v>
+          </cell>
+          <cell r="F42">
+            <v>0</v>
+          </cell>
+          <cell r="G42">
+            <v>0</v>
+          </cell>
+          <cell r="H42">
+            <v>0</v>
+          </cell>
+          <cell r="I42">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>44271.494895833333</v>
+          </cell>
+          <cell r="B43">
+            <v>0</v>
+          </cell>
+          <cell r="C43">
+            <v>0</v>
+          </cell>
+          <cell r="D43">
+            <v>0</v>
+          </cell>
+          <cell r="E43">
+            <v>0</v>
+          </cell>
+          <cell r="F43">
+            <v>0</v>
+          </cell>
+          <cell r="G43">
+            <v>0</v>
+          </cell>
+          <cell r="H43">
+            <v>0</v>
+          </cell>
+          <cell r="I43">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>44271.743819444448</v>
+          </cell>
+          <cell r="B44">
+            <v>0</v>
+          </cell>
+          <cell r="C44">
+            <v>0</v>
+          </cell>
+          <cell r="D44">
+            <v>0</v>
+          </cell>
+          <cell r="E44">
+            <v>0</v>
+          </cell>
+          <cell r="F44">
+            <v>0</v>
+          </cell>
+          <cell r="G44">
+            <v>0</v>
+          </cell>
+          <cell r="H44">
+            <v>0</v>
+          </cell>
+          <cell r="I44">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>44271.967175925929</v>
+          </cell>
+          <cell r="B45">
+            <v>0</v>
+          </cell>
+          <cell r="C45">
+            <v>0</v>
+          </cell>
+          <cell r="D45">
+            <v>0</v>
+          </cell>
+          <cell r="E45">
+            <v>0</v>
+          </cell>
+          <cell r="F45">
+            <v>0</v>
+          </cell>
+          <cell r="G45">
+            <v>0</v>
+          </cell>
+          <cell r="H45">
+            <v>0</v>
+          </cell>
+          <cell r="I45">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46">
+            <v>44272.217187499999</v>
+          </cell>
+          <cell r="B46">
+            <v>0</v>
+          </cell>
+          <cell r="C46">
+            <v>0</v>
+          </cell>
+          <cell r="D46">
+            <v>0</v>
+          </cell>
+          <cell r="E46">
+            <v>0</v>
+          </cell>
+          <cell r="F46">
+            <v>0</v>
+          </cell>
+          <cell r="G46">
+            <v>0</v>
+          </cell>
+          <cell r="H46">
+            <v>0</v>
+          </cell>
+          <cell r="I46">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47">
+            <v>44272.364363425928</v>
+          </cell>
+          <cell r="B47">
+            <v>0</v>
+          </cell>
+          <cell r="C47">
+            <v>0</v>
+          </cell>
+          <cell r="D47">
+            <v>0</v>
+          </cell>
+          <cell r="E47">
+            <v>0</v>
+          </cell>
+          <cell r="F47">
+            <v>0</v>
+          </cell>
+          <cell r="G47">
+            <v>0</v>
+          </cell>
+          <cell r="H47">
+            <v>0</v>
+          </cell>
+          <cell r="I47">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48">
+            <v>44272.496574074074</v>
+          </cell>
+          <cell r="B48">
+            <v>0</v>
+          </cell>
+          <cell r="C48">
+            <v>0</v>
+          </cell>
+          <cell r="D48">
+            <v>0</v>
+          </cell>
+          <cell r="E48">
+            <v>0</v>
+          </cell>
+          <cell r="F48">
+            <v>0</v>
+          </cell>
+          <cell r="G48">
+            <v>0</v>
+          </cell>
+          <cell r="H48">
+            <v>0</v>
+          </cell>
+          <cell r="I48">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49">
+            <v>44272.97351851852</v>
+          </cell>
+          <cell r="B49">
+            <v>0</v>
+          </cell>
+          <cell r="C49">
+            <v>0</v>
+          </cell>
+          <cell r="D49">
+            <v>0</v>
+          </cell>
+          <cell r="E49">
+            <v>0</v>
+          </cell>
+          <cell r="F49">
+            <v>0</v>
+          </cell>
+          <cell r="G49">
+            <v>0</v>
+          </cell>
+          <cell r="H49">
+            <v>0</v>
+          </cell>
+          <cell r="I49">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50">
+            <v>44272.99658564815</v>
+          </cell>
+          <cell r="B50">
+            <v>0</v>
+          </cell>
+          <cell r="C50">
+            <v>0</v>
+          </cell>
+          <cell r="D50">
+            <v>0</v>
+          </cell>
+          <cell r="E50">
+            <v>0</v>
+          </cell>
+          <cell r="F50">
+            <v>0</v>
+          </cell>
+          <cell r="G50">
+            <v>0</v>
+          </cell>
+          <cell r="H50">
+            <v>0</v>
+          </cell>
+          <cell r="I50">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51">
+            <v>44273.113668981481</v>
+          </cell>
+          <cell r="B51">
+            <v>0</v>
+          </cell>
+          <cell r="C51">
+            <v>0</v>
+          </cell>
+          <cell r="D51">
+            <v>0</v>
+          </cell>
+          <cell r="E51">
+            <v>0</v>
+          </cell>
+          <cell r="F51">
+            <v>0</v>
+          </cell>
+          <cell r="G51">
+            <v>0</v>
+          </cell>
+          <cell r="H51">
+            <v>0</v>
+          </cell>
+          <cell r="I51">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52">
+            <v>44273.25203703704</v>
+          </cell>
+          <cell r="B52">
+            <v>0</v>
+          </cell>
+          <cell r="C52">
+            <v>0</v>
+          </cell>
+          <cell r="D52">
+            <v>0</v>
+          </cell>
+          <cell r="E52">
+            <v>0</v>
+          </cell>
+          <cell r="F52">
+            <v>0</v>
+          </cell>
+          <cell r="G52">
+            <v>0</v>
+          </cell>
+          <cell r="H52">
+            <v>0</v>
+          </cell>
+          <cell r="I52">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53">
+            <v>44273.502060185187</v>
+          </cell>
+          <cell r="B53">
+            <v>0</v>
+          </cell>
+          <cell r="C53">
+            <v>0</v>
+          </cell>
+          <cell r="D53">
+            <v>0</v>
+          </cell>
+          <cell r="E53">
+            <v>0</v>
+          </cell>
+          <cell r="F53">
+            <v>0</v>
+          </cell>
+          <cell r="G53">
+            <v>0</v>
+          </cell>
+          <cell r="H53">
+            <v>0</v>
+          </cell>
+          <cell r="I53">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54">
+            <v>44273.752071759256</v>
+          </cell>
+          <cell r="B54">
+            <v>0</v>
+          </cell>
+          <cell r="C54">
+            <v>0</v>
+          </cell>
+          <cell r="D54">
+            <v>0</v>
+          </cell>
+          <cell r="E54">
+            <v>0</v>
+          </cell>
+          <cell r="F54">
+            <v>0</v>
+          </cell>
+          <cell r="G54">
+            <v>0</v>
+          </cell>
+          <cell r="H54">
+            <v>0</v>
+          </cell>
+          <cell r="I54">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55">
+            <v>44274.362974537034</v>
+          </cell>
+          <cell r="B55">
+            <v>0</v>
+          </cell>
+          <cell r="C55">
+            <v>0</v>
+          </cell>
+          <cell r="D55">
+            <v>0</v>
+          </cell>
+          <cell r="E55">
+            <v>0</v>
+          </cell>
+          <cell r="F55">
+            <v>0</v>
+          </cell>
+          <cell r="G55">
+            <v>0</v>
+          </cell>
+          <cell r="H55">
+            <v>0</v>
+          </cell>
+          <cell r="I55">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56">
+            <v>44274.496574074074</v>
+          </cell>
+          <cell r="B56">
+            <v>0</v>
+          </cell>
+          <cell r="C56">
+            <v>0</v>
+          </cell>
+          <cell r="D56">
+            <v>0</v>
+          </cell>
+          <cell r="E56">
+            <v>0</v>
+          </cell>
+          <cell r="F56">
+            <v>0</v>
+          </cell>
+          <cell r="G56">
+            <v>0</v>
+          </cell>
+          <cell r="H56">
+            <v>0</v>
+          </cell>
+          <cell r="I56">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57">
+            <v>44274.746608796297</v>
+          </cell>
+          <cell r="B57">
+            <v>0</v>
+          </cell>
+          <cell r="C57">
+            <v>0</v>
+          </cell>
+          <cell r="D57">
+            <v>0</v>
+          </cell>
+          <cell r="E57">
+            <v>0</v>
+          </cell>
+          <cell r="F57">
+            <v>0</v>
+          </cell>
+          <cell r="G57">
+            <v>0</v>
+          </cell>
+          <cell r="H57">
+            <v>0</v>
+          </cell>
+          <cell r="I57">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58">
+            <v>44274.996631944443</v>
+          </cell>
+          <cell r="B58">
+            <v>0</v>
+          </cell>
+          <cell r="C58">
+            <v>0</v>
+          </cell>
+          <cell r="D58">
+            <v>0</v>
+          </cell>
+          <cell r="E58">
+            <v>0</v>
+          </cell>
+          <cell r="F58">
+            <v>0</v>
+          </cell>
+          <cell r="G58">
+            <v>0</v>
+          </cell>
+          <cell r="H58">
+            <v>0</v>
+          </cell>
+          <cell r="I58">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59">
+            <v>44275.246608796297</v>
+          </cell>
+          <cell r="B59">
+            <v>0</v>
+          </cell>
+          <cell r="C59">
+            <v>0</v>
+          </cell>
+          <cell r="D59">
+            <v>0</v>
+          </cell>
+          <cell r="E59">
+            <v>0</v>
+          </cell>
+          <cell r="F59">
+            <v>0</v>
+          </cell>
+          <cell r="G59">
+            <v>0</v>
+          </cell>
+          <cell r="H59">
+            <v>0</v>
+          </cell>
+          <cell r="I59">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60">
+            <v>44275.520902777775</v>
+          </cell>
+          <cell r="B60">
+            <v>0</v>
+          </cell>
+          <cell r="C60">
+            <v>0</v>
+          </cell>
+          <cell r="D60">
+            <v>0</v>
+          </cell>
+          <cell r="E60">
+            <v>0</v>
+          </cell>
+          <cell r="F60">
+            <v>0</v>
+          </cell>
+          <cell r="G60">
+            <v>0</v>
+          </cell>
+          <cell r="H60">
+            <v>0</v>
+          </cell>
+          <cell r="I60">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61">
+            <v>44275.74659722222</v>
+          </cell>
+          <cell r="B61">
+            <v>0</v>
+          </cell>
+          <cell r="C61">
+            <v>0</v>
+          </cell>
+          <cell r="D61">
+            <v>0</v>
+          </cell>
+          <cell r="E61">
+            <v>0</v>
+          </cell>
+          <cell r="F61">
+            <v>0</v>
+          </cell>
+          <cell r="G61">
+            <v>562.75008333333403</v>
+          </cell>
+          <cell r="H61">
+            <v>0</v>
+          </cell>
+          <cell r="I61">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62">
+            <v>44275.780185185184</v>
+          </cell>
+          <cell r="B62">
+            <v>0</v>
+          </cell>
+          <cell r="C62">
+            <v>0</v>
+          </cell>
+          <cell r="D62">
+            <v>0</v>
+          </cell>
+          <cell r="E62">
+            <v>0</v>
+          </cell>
+          <cell r="F62">
+            <v>0</v>
+          </cell>
+          <cell r="G62">
+            <v>0</v>
+          </cell>
+          <cell r="H62">
+            <v>0</v>
+          </cell>
+          <cell r="I62">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63">
+            <v>44275.996562499997</v>
+          </cell>
+          <cell r="B63">
+            <v>0</v>
+          </cell>
+          <cell r="C63">
+            <v>0</v>
+          </cell>
+          <cell r="D63">
+            <v>0</v>
+          </cell>
+          <cell r="E63">
+            <v>0</v>
+          </cell>
+          <cell r="F63">
+            <v>0</v>
+          </cell>
+          <cell r="G63">
+            <v>889.85583333333398</v>
+          </cell>
+          <cell r="H63">
+            <v>890.34291666666797</v>
+          </cell>
+          <cell r="I63">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64">
+            <v>44276.246562499997</v>
+          </cell>
+          <cell r="B64">
+            <v>0</v>
+          </cell>
+          <cell r="C64">
+            <v>0</v>
+          </cell>
+          <cell r="D64">
+            <v>0</v>
+          </cell>
+          <cell r="E64">
+            <v>0</v>
+          </cell>
+          <cell r="F64">
+            <v>0</v>
+          </cell>
+          <cell r="G64">
+            <v>0</v>
+          </cell>
+          <cell r="H64">
+            <v>0</v>
+          </cell>
+          <cell r="I64">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65">
+            <v>44276.496550925927</v>
+          </cell>
+          <cell r="B65">
+            <v>0</v>
+          </cell>
+          <cell r="C65">
+            <v>0</v>
+          </cell>
+          <cell r="D65">
+            <v>0</v>
+          </cell>
+          <cell r="E65">
+            <v>0</v>
+          </cell>
+          <cell r="F65">
+            <v>0</v>
+          </cell>
+          <cell r="G65">
+            <v>0</v>
+          </cell>
+          <cell r="H65">
+            <v>0</v>
+          </cell>
+          <cell r="I65">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66">
+            <v>44276.771909722222</v>
+          </cell>
+          <cell r="B66">
+            <v>0</v>
+          </cell>
+          <cell r="C66">
+            <v>0</v>
+          </cell>
+          <cell r="D66">
+            <v>0</v>
+          </cell>
+          <cell r="E66">
+            <v>0</v>
+          </cell>
+          <cell r="F66">
+            <v>0</v>
+          </cell>
+          <cell r="G66">
+            <v>0</v>
+          </cell>
+          <cell r="H66">
+            <v>0</v>
+          </cell>
+          <cell r="I66">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67">
+            <v>44276.99659722222</v>
+          </cell>
+          <cell r="B67">
+            <v>0</v>
+          </cell>
+          <cell r="C67">
+            <v>0</v>
+          </cell>
+          <cell r="D67">
+            <v>0</v>
+          </cell>
+          <cell r="E67">
+            <v>0</v>
+          </cell>
+          <cell r="F67">
+            <v>0</v>
+          </cell>
+          <cell r="G67">
+            <v>157.88558333333199</v>
+          </cell>
+          <cell r="H67">
+            <v>0</v>
+          </cell>
+          <cell r="I67">
             <v>0</v>
           </cell>
         </row>
@@ -9424,6 +14645,9 @@
           <cell r="H1" t="str">
             <v>Sacred Sundy</v>
           </cell>
+          <cell r="I1" t="str">
+            <v>Crasymonster26</v>
+          </cell>
         </row>
         <row r="2">
           <cell r="A2">
@@ -9450,6 +14674,9 @@
           <cell r="H2">
             <v>0</v>
           </cell>
+          <cell r="I2">
+            <v>0</v>
+          </cell>
         </row>
         <row r="3">
           <cell r="A3">
@@ -9476,6 +14703,9 @@
           <cell r="H3">
             <v>0</v>
           </cell>
+          <cell r="I3">
+            <v>0</v>
+          </cell>
         </row>
         <row r="4">
           <cell r="A4">
@@ -9502,6 +14732,9 @@
           <cell r="H4">
             <v>0</v>
           </cell>
+          <cell r="I4">
+            <v>0</v>
+          </cell>
         </row>
         <row r="5">
           <cell r="A5">
@@ -9528,6 +14761,9 @@
           <cell r="H5">
             <v>0</v>
           </cell>
+          <cell r="I5">
+            <v>0</v>
+          </cell>
         </row>
         <row r="6">
           <cell r="A6">
@@ -9554,6 +14790,9 @@
           <cell r="H6">
             <v>0</v>
           </cell>
+          <cell r="I6">
+            <v>0</v>
+          </cell>
         </row>
         <row r="7">
           <cell r="A7">
@@ -9580,6 +14819,9 @@
           <cell r="H7">
             <v>0</v>
           </cell>
+          <cell r="I7">
+            <v>0</v>
+          </cell>
         </row>
         <row r="8">
           <cell r="A8">
@@ -9606,6 +14848,9 @@
           <cell r="H8">
             <v>0</v>
           </cell>
+          <cell r="I8">
+            <v>0</v>
+          </cell>
         </row>
         <row r="9">
           <cell r="A9">
@@ -9632,6 +14877,9 @@
           <cell r="H9">
             <v>0</v>
           </cell>
+          <cell r="I9">
+            <v>0</v>
+          </cell>
         </row>
         <row r="10">
           <cell r="A10">
@@ -9658,6 +14906,9 @@
           <cell r="H10">
             <v>21557.762374999998</v>
           </cell>
+          <cell r="I10">
+            <v>0</v>
+          </cell>
         </row>
         <row r="11">
           <cell r="A11">
@@ -9684,6 +14935,9 @@
           <cell r="H11">
             <v>21557.762374999998</v>
           </cell>
+          <cell r="I11">
+            <v>0</v>
+          </cell>
         </row>
         <row r="12">
           <cell r="A12">
@@ -9710,6 +14964,9 @@
           <cell r="H12">
             <v>21557.762374999998</v>
           </cell>
+          <cell r="I12">
+            <v>0</v>
+          </cell>
         </row>
         <row r="13">
           <cell r="A13">
@@ -9736,6 +14993,9 @@
           <cell r="H13">
             <v>21557.762374999998</v>
           </cell>
+          <cell r="I13">
+            <v>0</v>
+          </cell>
         </row>
         <row r="14">
           <cell r="A14">
@@ -9762,6 +15022,9 @@
           <cell r="H14">
             <v>21557.762374999998</v>
           </cell>
+          <cell r="I14">
+            <v>0</v>
+          </cell>
         </row>
         <row r="15">
           <cell r="A15">
@@ -9788,6 +15051,9 @@
           <cell r="H15">
             <v>21557.762374999998</v>
           </cell>
+          <cell r="I15">
+            <v>0</v>
+          </cell>
         </row>
         <row r="16">
           <cell r="A16">
@@ -9814,6 +15080,9 @@
           <cell r="H16">
             <v>21557.762374999998</v>
           </cell>
+          <cell r="I16">
+            <v>0</v>
+          </cell>
         </row>
         <row r="17">
           <cell r="A17">
@@ -9840,6 +15109,9 @@
           <cell r="H17">
             <v>21557.762374999998</v>
           </cell>
+          <cell r="I17">
+            <v>0</v>
+          </cell>
         </row>
         <row r="18">
           <cell r="A18">
@@ -9866,6 +15138,9 @@
           <cell r="H18">
             <v>21557.762374999998</v>
           </cell>
+          <cell r="I18">
+            <v>0</v>
+          </cell>
         </row>
         <row r="19">
           <cell r="A19">
@@ -9892,6 +15167,9 @@
           <cell r="H19">
             <v>21557.762374999998</v>
           </cell>
+          <cell r="I19">
+            <v>0</v>
+          </cell>
         </row>
         <row r="20">
           <cell r="A20">
@@ -9918,6 +15196,9 @@
           <cell r="H20">
             <v>21557.762374999998</v>
           </cell>
+          <cell r="I20">
+            <v>0</v>
+          </cell>
         </row>
         <row r="21">
           <cell r="A21">
@@ -9944,6 +15225,9 @@
           <cell r="H21">
             <v>21557.762374999998</v>
           </cell>
+          <cell r="I21">
+            <v>0</v>
+          </cell>
         </row>
         <row r="22">
           <cell r="A22">
@@ -9970,6 +15254,9 @@
           <cell r="H22">
             <v>21557.762374999998</v>
           </cell>
+          <cell r="I22">
+            <v>0</v>
+          </cell>
         </row>
         <row r="23">
           <cell r="A23">
@@ -9996,6 +15283,9 @@
           <cell r="H23">
             <v>21557.762374999998</v>
           </cell>
+          <cell r="I23">
+            <v>0</v>
+          </cell>
         </row>
         <row r="24">
           <cell r="A24">
@@ -10022,6 +15312,9 @@
           <cell r="H24">
             <v>21557.762374999998</v>
           </cell>
+          <cell r="I24">
+            <v>0</v>
+          </cell>
         </row>
         <row r="25">
           <cell r="A25">
@@ -10048,6 +15341,9 @@
           <cell r="H25">
             <v>21569.308208333299</v>
           </cell>
+          <cell r="I25">
+            <v>0</v>
+          </cell>
         </row>
         <row r="26">
           <cell r="A26">
@@ -10074,6 +15370,9 @@
           <cell r="H26">
             <v>21569.308208333299</v>
           </cell>
+          <cell r="I26">
+            <v>0</v>
+          </cell>
         </row>
         <row r="27">
           <cell r="A27">
@@ -10100,6 +15399,9 @@
           <cell r="H27">
             <v>21569.308208333299</v>
           </cell>
+          <cell r="I27">
+            <v>0</v>
+          </cell>
         </row>
         <row r="28">
           <cell r="A28">
@@ -10126,6 +15428,9 @@
           <cell r="H28">
             <v>21569.308208333299</v>
           </cell>
+          <cell r="I28">
+            <v>0</v>
+          </cell>
         </row>
         <row r="29">
           <cell r="A29">
@@ -10152,6 +15457,9 @@
           <cell r="H29">
             <v>21569.308208333299</v>
           </cell>
+          <cell r="I29">
+            <v>0</v>
+          </cell>
         </row>
         <row r="30">
           <cell r="A30">
@@ -10178,6 +15486,9 @@
           <cell r="H30">
             <v>21569.308208333299</v>
           </cell>
+          <cell r="I30">
+            <v>0</v>
+          </cell>
         </row>
         <row r="31">
           <cell r="A31">
@@ -10204,6 +15515,9 @@
           <cell r="H31">
             <v>21569.308208333299</v>
           </cell>
+          <cell r="I31">
+            <v>0</v>
+          </cell>
         </row>
         <row r="32">
           <cell r="A32">
@@ -10230,6 +15544,9 @@
           <cell r="H32">
             <v>21757.536875000002</v>
           </cell>
+          <cell r="I32">
+            <v>0</v>
+          </cell>
         </row>
         <row r="33">
           <cell r="A33">
@@ -10256,6 +15573,9 @@
           <cell r="H33">
             <v>21757.536875000002</v>
           </cell>
+          <cell r="I33">
+            <v>0</v>
+          </cell>
         </row>
         <row r="34">
           <cell r="A34">
@@ -10282,6 +15602,9 @@
           <cell r="H34">
             <v>21757.536875000002</v>
           </cell>
+          <cell r="I34">
+            <v>0</v>
+          </cell>
         </row>
         <row r="35">
           <cell r="A35">
@@ -10308,6 +15631,9 @@
           <cell r="H35">
             <v>21757.536875000002</v>
           </cell>
+          <cell r="I35">
+            <v>0</v>
+          </cell>
         </row>
         <row r="36">
           <cell r="A36">
@@ -10334,6 +15660,9 @@
           <cell r="H36">
             <v>21757.536875000002</v>
           </cell>
+          <cell r="I36">
+            <v>0</v>
+          </cell>
         </row>
         <row r="37">
           <cell r="A37">
@@ -10360,6 +15689,9 @@
           <cell r="H37">
             <v>21837.4898333333</v>
           </cell>
+          <cell r="I37">
+            <v>0</v>
+          </cell>
         </row>
         <row r="38">
           <cell r="A38">
@@ -10386,6 +15718,9 @@
           <cell r="H38">
             <v>21837.4898333333</v>
           </cell>
+          <cell r="I38">
+            <v>0</v>
+          </cell>
         </row>
         <row r="39">
           <cell r="A39">
@@ -10412,6 +15747,9 @@
           <cell r="H39">
             <v>21837.4898333333</v>
           </cell>
+          <cell r="I39">
+            <v>0</v>
+          </cell>
         </row>
         <row r="40">
           <cell r="A40">
@@ -10437,6 +15775,792 @@
           </cell>
           <cell r="H40">
             <v>21837.4898333333</v>
+          </cell>
+          <cell r="I40">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>44270.99490740741</v>
+          </cell>
+          <cell r="B41">
+            <v>2012.0952916666599</v>
+          </cell>
+          <cell r="C41">
+            <v>40926.385041666603</v>
+          </cell>
+          <cell r="D41">
+            <v>664.96533333333298</v>
+          </cell>
+          <cell r="E41">
+            <v>24372.6129166666</v>
+          </cell>
+          <cell r="F41">
+            <v>6677.6086666666597</v>
+          </cell>
+          <cell r="G41">
+            <v>6778.5787499999997</v>
+          </cell>
+          <cell r="H41">
+            <v>21837.4898333333</v>
+          </cell>
+          <cell r="I41">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>44271.24490740741</v>
+          </cell>
+          <cell r="B42">
+            <v>2012.0952916666599</v>
+          </cell>
+          <cell r="C42">
+            <v>40926.385041666603</v>
+          </cell>
+          <cell r="D42">
+            <v>664.96533333333298</v>
+          </cell>
+          <cell r="E42">
+            <v>24372.6129166666</v>
+          </cell>
+          <cell r="F42">
+            <v>6677.6086666666597</v>
+          </cell>
+          <cell r="G42">
+            <v>6778.5787499999997</v>
+          </cell>
+          <cell r="H42">
+            <v>21837.4898333333</v>
+          </cell>
+          <cell r="I42">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>44271.494895833333</v>
+          </cell>
+          <cell r="B43">
+            <v>2012.0952916666599</v>
+          </cell>
+          <cell r="C43">
+            <v>40926.385041666603</v>
+          </cell>
+          <cell r="D43">
+            <v>664.96533333333298</v>
+          </cell>
+          <cell r="E43">
+            <v>24372.6129166666</v>
+          </cell>
+          <cell r="F43">
+            <v>6677.6086666666597</v>
+          </cell>
+          <cell r="G43">
+            <v>6778.5787499999997</v>
+          </cell>
+          <cell r="H43">
+            <v>21837.4898333333</v>
+          </cell>
+          <cell r="I43">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>44271.743819444448</v>
+          </cell>
+          <cell r="B44">
+            <v>2012.0952916666599</v>
+          </cell>
+          <cell r="C44">
+            <v>40926.385041666603</v>
+          </cell>
+          <cell r="D44">
+            <v>664.96533333333298</v>
+          </cell>
+          <cell r="E44">
+            <v>24372.6129166666</v>
+          </cell>
+          <cell r="F44">
+            <v>6677.6086666666597</v>
+          </cell>
+          <cell r="G44">
+            <v>6778.5787499999997</v>
+          </cell>
+          <cell r="H44">
+            <v>21837.4898333333</v>
+          </cell>
+          <cell r="I44">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>44271.967175925929</v>
+          </cell>
+          <cell r="B45">
+            <v>2012.0952916666599</v>
+          </cell>
+          <cell r="C45">
+            <v>40926.385041666603</v>
+          </cell>
+          <cell r="D45">
+            <v>664.96533333333298</v>
+          </cell>
+          <cell r="E45">
+            <v>24372.6129166666</v>
+          </cell>
+          <cell r="F45">
+            <v>6677.6086666666597</v>
+          </cell>
+          <cell r="G45">
+            <v>6778.5787499999997</v>
+          </cell>
+          <cell r="H45">
+            <v>21837.4898333333</v>
+          </cell>
+          <cell r="I45">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46">
+            <v>44272.217187499999</v>
+          </cell>
+          <cell r="B46">
+            <v>2012.0952916666599</v>
+          </cell>
+          <cell r="C46">
+            <v>40926.385041666603</v>
+          </cell>
+          <cell r="D46">
+            <v>664.96533333333298</v>
+          </cell>
+          <cell r="E46">
+            <v>24372.6129166666</v>
+          </cell>
+          <cell r="F46">
+            <v>6677.6086666666597</v>
+          </cell>
+          <cell r="G46">
+            <v>6778.5787499999997</v>
+          </cell>
+          <cell r="H46">
+            <v>21837.4898333333</v>
+          </cell>
+          <cell r="I46">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47">
+            <v>44272.364363425928</v>
+          </cell>
+          <cell r="B47">
+            <v>2012.0952916666599</v>
+          </cell>
+          <cell r="C47">
+            <v>40926.385041666603</v>
+          </cell>
+          <cell r="D47">
+            <v>664.96533333333298</v>
+          </cell>
+          <cell r="E47">
+            <v>24372.6129166666</v>
+          </cell>
+          <cell r="F47">
+            <v>6677.6086666666597</v>
+          </cell>
+          <cell r="G47">
+            <v>6778.5787499999997</v>
+          </cell>
+          <cell r="H47">
+            <v>21837.4898333333</v>
+          </cell>
+          <cell r="I47">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48">
+            <v>44272.496574074074</v>
+          </cell>
+          <cell r="B48">
+            <v>2012.0952916666599</v>
+          </cell>
+          <cell r="C48">
+            <v>40926.385041666603</v>
+          </cell>
+          <cell r="D48">
+            <v>664.96533333333298</v>
+          </cell>
+          <cell r="E48">
+            <v>24372.6129166666</v>
+          </cell>
+          <cell r="F48">
+            <v>6677.6086666666597</v>
+          </cell>
+          <cell r="G48">
+            <v>6778.5787499999997</v>
+          </cell>
+          <cell r="H48">
+            <v>21837.4898333333</v>
+          </cell>
+          <cell r="I48">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49">
+            <v>44272.97351851852</v>
+          </cell>
+          <cell r="B49">
+            <v>2012.0952916666599</v>
+          </cell>
+          <cell r="C49">
+            <v>40926.385041666603</v>
+          </cell>
+          <cell r="D49">
+            <v>664.96533333333298</v>
+          </cell>
+          <cell r="E49">
+            <v>24372.6129166666</v>
+          </cell>
+          <cell r="F49">
+            <v>6677.6086666666597</v>
+          </cell>
+          <cell r="G49">
+            <v>6778.5787499999997</v>
+          </cell>
+          <cell r="H49">
+            <v>21837.4898333333</v>
+          </cell>
+          <cell r="I49">
+            <v>3408.6900416666599</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50">
+            <v>44272.99658564815</v>
+          </cell>
+          <cell r="B50">
+            <v>2012.0952916666599</v>
+          </cell>
+          <cell r="C50">
+            <v>40926.385041666603</v>
+          </cell>
+          <cell r="D50">
+            <v>664.96533333333298</v>
+          </cell>
+          <cell r="E50">
+            <v>24372.6129166666</v>
+          </cell>
+          <cell r="F50">
+            <v>6677.6086666666597</v>
+          </cell>
+          <cell r="G50">
+            <v>6778.5787499999997</v>
+          </cell>
+          <cell r="H50">
+            <v>21837.4898333333</v>
+          </cell>
+          <cell r="I50">
+            <v>3408.6900416666599</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51">
+            <v>44273.113668981481</v>
+          </cell>
+          <cell r="B51">
+            <v>2012.0952916666599</v>
+          </cell>
+          <cell r="C51">
+            <v>40926.385041666603</v>
+          </cell>
+          <cell r="D51">
+            <v>664.96533333333298</v>
+          </cell>
+          <cell r="E51">
+            <v>24372.6129166666</v>
+          </cell>
+          <cell r="F51">
+            <v>6677.6086666666597</v>
+          </cell>
+          <cell r="G51">
+            <v>6778.5787499999997</v>
+          </cell>
+          <cell r="H51">
+            <v>21837.4898333333</v>
+          </cell>
+          <cell r="I51">
+            <v>3408.6900416666599</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52">
+            <v>44273.25203703704</v>
+          </cell>
+          <cell r="B52">
+            <v>2012.0952916666599</v>
+          </cell>
+          <cell r="C52">
+            <v>40926.385041666603</v>
+          </cell>
+          <cell r="D52">
+            <v>664.96533333333298</v>
+          </cell>
+          <cell r="E52">
+            <v>24372.6129166666</v>
+          </cell>
+          <cell r="F52">
+            <v>6677.6086666666597</v>
+          </cell>
+          <cell r="G52">
+            <v>6778.5787499999997</v>
+          </cell>
+          <cell r="H52">
+            <v>21837.4898333333</v>
+          </cell>
+          <cell r="I52">
+            <v>3408.6900416666599</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53">
+            <v>44273.502060185187</v>
+          </cell>
+          <cell r="B53">
+            <v>2012.0952916666599</v>
+          </cell>
+          <cell r="C53">
+            <v>40926.385041666603</v>
+          </cell>
+          <cell r="D53">
+            <v>664.96533333333298</v>
+          </cell>
+          <cell r="E53">
+            <v>24372.6129166666</v>
+          </cell>
+          <cell r="F53">
+            <v>6677.6086666666597</v>
+          </cell>
+          <cell r="G53">
+            <v>6778.5787499999997</v>
+          </cell>
+          <cell r="H53">
+            <v>21837.4898333333</v>
+          </cell>
+          <cell r="I53">
+            <v>3408.6900416666599</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54">
+            <v>44273.752071759256</v>
+          </cell>
+          <cell r="B54">
+            <v>2012.0952916666599</v>
+          </cell>
+          <cell r="C54">
+            <v>40926.385041666603</v>
+          </cell>
+          <cell r="D54">
+            <v>664.96533333333298</v>
+          </cell>
+          <cell r="E54">
+            <v>24372.6129166666</v>
+          </cell>
+          <cell r="F54">
+            <v>6677.6086666666597</v>
+          </cell>
+          <cell r="G54">
+            <v>6778.5787499999997</v>
+          </cell>
+          <cell r="H54">
+            <v>21837.4898333333</v>
+          </cell>
+          <cell r="I54">
+            <v>3408.6900416666599</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55">
+            <v>44274.362974537034</v>
+          </cell>
+          <cell r="B55">
+            <v>2012.0952916666599</v>
+          </cell>
+          <cell r="C55">
+            <v>40926.385041666603</v>
+          </cell>
+          <cell r="D55">
+            <v>664.96533333333298</v>
+          </cell>
+          <cell r="E55">
+            <v>24372.6129166666</v>
+          </cell>
+          <cell r="F55">
+            <v>6677.6086666666597</v>
+          </cell>
+          <cell r="G55">
+            <v>6778.5787499999997</v>
+          </cell>
+          <cell r="H55">
+            <v>21837.4898333333</v>
+          </cell>
+          <cell r="I55">
+            <v>3408.6900416666599</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56">
+            <v>44274.496574074074</v>
+          </cell>
+          <cell r="B56">
+            <v>2012.0952916666599</v>
+          </cell>
+          <cell r="C56">
+            <v>40926.385041666603</v>
+          </cell>
+          <cell r="D56">
+            <v>664.96533333333298</v>
+          </cell>
+          <cell r="E56">
+            <v>24372.6129166666</v>
+          </cell>
+          <cell r="F56">
+            <v>6677.6086666666597</v>
+          </cell>
+          <cell r="G56">
+            <v>6778.5787499999997</v>
+          </cell>
+          <cell r="H56">
+            <v>21837.4898333333</v>
+          </cell>
+          <cell r="I56">
+            <v>3408.6900416666599</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57">
+            <v>44274.746608796297</v>
+          </cell>
+          <cell r="B57">
+            <v>2012.0952916666599</v>
+          </cell>
+          <cell r="C57">
+            <v>40926.385041666603</v>
+          </cell>
+          <cell r="D57">
+            <v>664.96533333333298</v>
+          </cell>
+          <cell r="E57">
+            <v>24372.6129166666</v>
+          </cell>
+          <cell r="F57">
+            <v>6677.6086666666597</v>
+          </cell>
+          <cell r="G57">
+            <v>6778.5787499999997</v>
+          </cell>
+          <cell r="H57">
+            <v>21837.4898333333</v>
+          </cell>
+          <cell r="I57">
+            <v>3408.6900416666599</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58">
+            <v>44274.996631944443</v>
+          </cell>
+          <cell r="B58">
+            <v>2012.0952916666599</v>
+          </cell>
+          <cell r="C58">
+            <v>40926.385041666603</v>
+          </cell>
+          <cell r="D58">
+            <v>664.96533333333298</v>
+          </cell>
+          <cell r="E58">
+            <v>24372.6129166666</v>
+          </cell>
+          <cell r="F58">
+            <v>6677.6086666666597</v>
+          </cell>
+          <cell r="G58">
+            <v>6778.5787499999997</v>
+          </cell>
+          <cell r="H58">
+            <v>21837.4898333333</v>
+          </cell>
+          <cell r="I58">
+            <v>3408.6900416666599</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59">
+            <v>44275.246608796297</v>
+          </cell>
+          <cell r="B59">
+            <v>2012.0952916666599</v>
+          </cell>
+          <cell r="C59">
+            <v>40926.385041666603</v>
+          </cell>
+          <cell r="D59">
+            <v>664.96533333333298</v>
+          </cell>
+          <cell r="E59">
+            <v>24372.6129166666</v>
+          </cell>
+          <cell r="F59">
+            <v>6677.6086666666597</v>
+          </cell>
+          <cell r="G59">
+            <v>6778.5787499999997</v>
+          </cell>
+          <cell r="H59">
+            <v>21837.4898333333</v>
+          </cell>
+          <cell r="I59">
+            <v>3408.6900416666599</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60">
+            <v>44275.520902777775</v>
+          </cell>
+          <cell r="B60">
+            <v>2012.0952916666599</v>
+          </cell>
+          <cell r="C60">
+            <v>40926.385041666603</v>
+          </cell>
+          <cell r="D60">
+            <v>664.96533333333298</v>
+          </cell>
+          <cell r="E60">
+            <v>24372.6129166666</v>
+          </cell>
+          <cell r="F60">
+            <v>6677.6086666666597</v>
+          </cell>
+          <cell r="G60">
+            <v>6778.5787499999997</v>
+          </cell>
+          <cell r="H60">
+            <v>21837.4898333333</v>
+          </cell>
+          <cell r="I60">
+            <v>3408.6900416666599</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61">
+            <v>44275.74659722222</v>
+          </cell>
+          <cell r="B61">
+            <v>2012.0952916666599</v>
+          </cell>
+          <cell r="C61">
+            <v>40926.385041666603</v>
+          </cell>
+          <cell r="D61">
+            <v>664.96533333333298</v>
+          </cell>
+          <cell r="E61">
+            <v>24372.6129166666</v>
+          </cell>
+          <cell r="F61">
+            <v>6677.6086666666597</v>
+          </cell>
+          <cell r="G61">
+            <v>7341.3288333333303</v>
+          </cell>
+          <cell r="H61">
+            <v>21837.4898333333</v>
+          </cell>
+          <cell r="I61">
+            <v>3408.6900416666599</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62">
+            <v>44275.780185185184</v>
+          </cell>
+          <cell r="B62">
+            <v>2012.0952916666599</v>
+          </cell>
+          <cell r="C62">
+            <v>40926.385041666603</v>
+          </cell>
+          <cell r="D62">
+            <v>664.96533333333298</v>
+          </cell>
+          <cell r="E62">
+            <v>24372.6129166666</v>
+          </cell>
+          <cell r="F62">
+            <v>6677.6086666666597</v>
+          </cell>
+          <cell r="G62">
+            <v>7341.3288333333303</v>
+          </cell>
+          <cell r="H62">
+            <v>21837.4898333333</v>
+          </cell>
+          <cell r="I62">
+            <v>3408.6900416666599</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63">
+            <v>44275.996562499997</v>
+          </cell>
+          <cell r="B63">
+            <v>2012.0952916666599</v>
+          </cell>
+          <cell r="C63">
+            <v>40926.385041666603</v>
+          </cell>
+          <cell r="D63">
+            <v>664.96533333333298</v>
+          </cell>
+          <cell r="E63">
+            <v>24372.6129166666</v>
+          </cell>
+          <cell r="F63">
+            <v>6677.6086666666597</v>
+          </cell>
+          <cell r="G63">
+            <v>8231.1846666666606</v>
+          </cell>
+          <cell r="H63">
+            <v>22727.832750000001</v>
+          </cell>
+          <cell r="I63">
+            <v>3408.6900416666599</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64">
+            <v>44276.246562499997</v>
+          </cell>
+          <cell r="B64">
+            <v>2012.0952916666599</v>
+          </cell>
+          <cell r="C64">
+            <v>40926.385041666603</v>
+          </cell>
+          <cell r="D64">
+            <v>664.96533333333298</v>
+          </cell>
+          <cell r="E64">
+            <v>24372.6129166666</v>
+          </cell>
+          <cell r="F64">
+            <v>6677.6086666666597</v>
+          </cell>
+          <cell r="G64">
+            <v>8231.1846666666606</v>
+          </cell>
+          <cell r="H64">
+            <v>22727.832750000001</v>
+          </cell>
+          <cell r="I64">
+            <v>3408.6900416666599</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65">
+            <v>44276.496550925927</v>
+          </cell>
+          <cell r="B65">
+            <v>2012.0952916666599</v>
+          </cell>
+          <cell r="C65">
+            <v>40926.385041666603</v>
+          </cell>
+          <cell r="D65">
+            <v>664.96533333333298</v>
+          </cell>
+          <cell r="E65">
+            <v>24372.6129166666</v>
+          </cell>
+          <cell r="F65">
+            <v>6677.6086666666597</v>
+          </cell>
+          <cell r="G65">
+            <v>8231.1846666666606</v>
+          </cell>
+          <cell r="H65">
+            <v>22727.832750000001</v>
+          </cell>
+          <cell r="I65">
+            <v>3408.6900416666599</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66">
+            <v>44276.771909722222</v>
+          </cell>
+          <cell r="B66">
+            <v>2012.0952916666599</v>
+          </cell>
+          <cell r="C66">
+            <v>40926.385041666603</v>
+          </cell>
+          <cell r="D66">
+            <v>664.96533333333298</v>
+          </cell>
+          <cell r="E66">
+            <v>24372.6129166666</v>
+          </cell>
+          <cell r="F66">
+            <v>6677.6086666666597</v>
+          </cell>
+          <cell r="G66">
+            <v>8231.1846666666606</v>
+          </cell>
+          <cell r="H66">
+            <v>22727.832750000001</v>
+          </cell>
+          <cell r="I66">
+            <v>3408.6900416666599</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67">
+            <v>44276.99659722222</v>
+          </cell>
+          <cell r="B67">
+            <v>2012.0952916666599</v>
+          </cell>
+          <cell r="C67">
+            <v>40926.385041666603</v>
+          </cell>
+          <cell r="D67">
+            <v>664.96533333333298</v>
+          </cell>
+          <cell r="E67">
+            <v>24372.6129166666</v>
+          </cell>
+          <cell r="F67">
+            <v>6677.6086666666597</v>
+          </cell>
+          <cell r="G67">
+            <v>8389.0702500000007</v>
+          </cell>
+          <cell r="H67">
+            <v>22727.832750000001</v>
+          </cell>
+          <cell r="I67">
+            <v>3408.6900416666599</v>
           </cell>
         </row>
       </sheetData>
@@ -10708,446 +16832,562 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4481A036-5C22-439A-8DC0-3CB818CB3EC2}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="5" customWidth="1"/>
-    <col min="2" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <f t="shared" ref="B1:H1" si="0">SUM(B3:B16)</f>
-        <v>3708.341083667</v>
+      <c r="C1" s="6">
+        <f t="shared" ref="C1:J1" si="0">SUM(C3:C16)</f>
+        <v>1610.4914999999921</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="6">
         <f t="shared" si="0"/>
-        <v>279.72745836000001</v>
+        <v>1249.1357083333312</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="6">
         <f t="shared" si="0"/>
-        <v>230.5914167</v>
+        <v>1170.0703750000018</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="6">
         <f t="shared" si="0"/>
-        <v>204.95691667</v>
+        <v>230.59141666666599</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="6">
         <f t="shared" si="0"/>
-        <v>109.1118333</v>
+        <v>204.95691666666659</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="6">
         <f t="shared" si="0"/>
-        <v>0.50449999999999995</v>
+        <v>109.11183333333599</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="6">
+        <f t="shared" si="0"/>
+        <v>0.50450000000000705</v>
+      </c>
+      <c r="J1" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="str" cm="1">
-        <f t="array" ref="A2:H16">[1]XpPerDay!$A$1:$H$15</f>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="str" cm="1">
+        <f t="array" ref="B2:J16">[1]XpPerDay!$A$1:$I$15</f>
         <v>Timestamp</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="C2" s="2" t="str">
+        <v>udontknowme</v>
+      </c>
+      <c r="D2" s="2" t="str">
         <v>Jupiter alt</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="E2" s="2" t="str">
         <v>Sacred Sundy</v>
       </c>
-      <c r="D2" s="2" t="str">
+      <c r="F2" s="2" t="str">
         <v>FallenDark</v>
       </c>
-      <c r="E2" s="2" t="str">
+      <c r="G2" s="2" t="str">
         <v>ADSCENCE</v>
       </c>
-      <c r="F2" s="2" t="str">
+      <c r="H2" s="2" t="str">
         <v>Derpydog495</v>
       </c>
-      <c r="G2" s="2" t="str">
+      <c r="I2" s="2" t="str">
         <v>Lizzy 2</v>
       </c>
-      <c r="H2" s="2" t="str">
-        <v>udontknowme</v>
+      <c r="J2" s="1" t="str">
+        <v>Crasymonster26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>44257</v>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <f>SUM(C3:J3)</f>
+        <v>96.484083333331995</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
+        <v>44264</v>
+      </c>
+      <c r="C3" s="5">
         <v>0</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D3" s="5">
+        <v>17.2219166666654</v>
+      </c>
+      <c r="E3" s="5">
         <v>0</v>
       </c>
-      <c r="D3" s="3">
+      <c r="F3" s="5">
         <v>0</v>
       </c>
-      <c r="E3" s="3">
+      <c r="G3" s="5">
+        <v>79.262166666666602</v>
+      </c>
+      <c r="H3" s="5">
         <v>0</v>
       </c>
-      <c r="F3" s="3">
+      <c r="I3" s="5">
         <v>0</v>
       </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
+      <c r="J3" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>44258</v>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <f t="shared" ref="A4:A16" si="1">SUM(C4:J4)</f>
+        <v>125.69475</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
+        <v>44265</v>
+      </c>
+      <c r="C4" s="5">
         <v>0</v>
       </c>
-      <c r="C4" s="3">
+      <c r="D4" s="5">
         <v>0</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="5">
         <v>0</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="5">
         <v>0</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="5">
+        <v>125.69475</v>
+      </c>
+      <c r="H4" s="5">
         <v>0</v>
       </c>
-      <c r="G4" s="3">
+      <c r="I4" s="5">
         <v>0</v>
       </c>
-      <c r="H4" s="3">
+      <c r="J4" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>44259</v>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <f t="shared" si="1"/>
+        <v>310.4483333333319</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
+        <v>44266</v>
+      </c>
+      <c r="C5" s="5">
         <v>0</v>
       </c>
-      <c r="C5" s="3">
+      <c r="D5" s="5">
+        <v>77.361833333332399</v>
+      </c>
+      <c r="E5" s="5">
+        <v>11.545833333333499</v>
+      </c>
+      <c r="F5" s="5">
+        <v>221.540666666666</v>
+      </c>
+      <c r="G5" s="5">
         <v>0</v>
       </c>
-      <c r="D5" s="3">
+      <c r="H5" s="5">
         <v>0</v>
       </c>
-      <c r="E5" s="3">
+      <c r="I5" s="5">
         <v>0</v>
       </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
+      <c r="J5" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>44260</v>
-      </c>
-      <c r="B6" s="3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C6" s="3">
+      <c r="B6" s="4">
+        <v>44267</v>
+      </c>
+      <c r="C6" s="5">
         <v>0</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="5">
         <v>0</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="5">
         <v>0</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="5">
         <v>0</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="5">
         <v>0</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>44261</v>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <f t="shared" si="1"/>
+        <v>353.18445833333396</v>
       </c>
-      <c r="B7" s="3">
-        <v>653.7404583</v>
+      <c r="B7" s="4">
+        <v>44268</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="5">
         <v>0</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="5">
+        <v>155.905041666665</v>
+      </c>
+      <c r="E7" s="5">
+        <v>188.228666666669</v>
+      </c>
+      <c r="F7" s="5">
+        <v>9.0507499999999901</v>
+      </c>
+      <c r="G7" s="5">
         <v>0</v>
       </c>
-      <c r="E7" s="3">
+      <c r="H7" s="5">
         <v>0</v>
       </c>
-      <c r="F7" s="3">
+      <c r="I7" s="5">
         <v>0</v>
       </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
+      <c r="J7" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>44262</v>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <f t="shared" si="1"/>
+        <v>81.479374999999806</v>
       </c>
-      <c r="B8" s="3">
-        <v>1805.464917</v>
+      <c r="B8" s="4">
+        <v>44269</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="5">
         <v>0</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="5">
+        <v>1.0219166666684001</v>
+      </c>
+      <c r="E8" s="5">
+        <v>79.952958333331395</v>
+      </c>
+      <c r="F8" s="5">
         <v>0</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="5">
         <v>0</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="5">
         <v>0</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
+      <c r="I8" s="5">
+        <v>0.50450000000000705</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>44263</v>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <f t="shared" si="1"/>
+        <v>1106.7368333333361</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
+        <v>44270</v>
+      </c>
+      <c r="C9" s="5">
         <v>0</v>
       </c>
-      <c r="C9" s="3">
+      <c r="D9" s="5">
+        <v>997.625</v>
+      </c>
+      <c r="E9" s="5">
         <v>0</v>
       </c>
-      <c r="D9" s="3">
+      <c r="F9" s="5">
         <v>0</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="5">
         <v>0</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="5">
+        <v>109.11183333333599</v>
+      </c>
+      <c r="I9" s="5">
         <v>0</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="J9" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>44264</v>
-      </c>
-      <c r="B10" s="3">
-        <v>17.221916669999999</v>
-      </c>
-      <c r="C10" s="3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D10" s="3">
+      <c r="B10" s="4">
+        <v>44271</v>
+      </c>
+      <c r="C10" s="5">
         <v>0</v>
       </c>
-      <c r="E10" s="3">
-        <v>79.262166669999999</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="D10" s="5">
         <v>0</v>
       </c>
-      <c r="G10" s="3">
+      <c r="E10" s="5">
         <v>0</v>
       </c>
-      <c r="H10" s="3">
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>44265</v>
-      </c>
-      <c r="B11" s="3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C11" s="3">
+      <c r="B11" s="4">
+        <v>44272</v>
+      </c>
+      <c r="C11" s="5">
         <v>0</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="5">
         <v>0</v>
       </c>
-      <c r="E11" s="3">
-        <v>125.69475</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="E11" s="5">
         <v>0</v>
       </c>
-      <c r="G11" s="3">
+      <c r="F11" s="5">
         <v>0</v>
       </c>
-      <c r="H11" s="3">
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>44266</v>
-      </c>
-      <c r="B12" s="3">
-        <v>77.361833329999996</v>
-      </c>
-      <c r="C12" s="3">
-        <v>11.545833330000001</v>
-      </c>
-      <c r="D12" s="3">
-        <v>221.5406667</v>
-      </c>
-      <c r="E12" s="3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F12" s="3">
+      <c r="B12" s="4">
+        <v>44273</v>
+      </c>
+      <c r="C12" s="5">
         <v>0</v>
       </c>
-      <c r="G12" s="3">
+      <c r="D12" s="5">
         <v>0</v>
       </c>
-      <c r="H12" s="3">
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>44267</v>
-      </c>
-      <c r="B13" s="3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C13" s="3">
+      <c r="B13" s="4">
+        <v>44274</v>
+      </c>
+      <c r="C13" s="5">
         <v>0</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="5">
         <v>0</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="5">
         <v>0</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="5">
         <v>0</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="5">
         <v>0</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>44268</v>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <f t="shared" si="1"/>
+        <v>2342.9488333333279</v>
       </c>
-      <c r="B14" s="3">
-        <v>155.9050417</v>
+      <c r="B14" s="4">
+        <v>44275</v>
       </c>
-      <c r="C14" s="3">
-        <v>188.22866669999999</v>
+      <c r="C14" s="5">
+        <v>1452.6059166666601</v>
       </c>
-      <c r="D14" s="3">
-        <v>9.0507500000000007</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="5">
         <v>0</v>
       </c>
-      <c r="F14" s="3">
+      <c r="E14" s="5">
+        <v>890.34291666666797</v>
+      </c>
+      <c r="F14" s="5">
         <v>0</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="5">
         <v>0</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>44269</v>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <f t="shared" si="1"/>
+        <v>157.88558333333199</v>
       </c>
-      <c r="B15" s="3">
-        <v>1.0219166669999999</v>
+      <c r="B15" s="4">
+        <v>44276</v>
       </c>
-      <c r="C15" s="3">
-        <v>79.952958330000001</v>
+      <c r="C15" s="5">
+        <v>157.88558333333199</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="5">
         <v>0</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="5">
         <v>0</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="5">
         <v>0</v>
       </c>
-      <c r="G15" s="3">
-        <v>0.50449999999999995</v>
+      <c r="G15" s="5">
+        <v>0</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="5">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>44270</v>
-      </c>
-      <c r="B16" s="3">
-        <v>997.625</v>
-      </c>
-      <c r="C16" s="3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D16" s="3">
+      <c r="B16" s="4">
+        <v>44277</v>
+      </c>
+      <c r="C16" s="5">
         <v>0</v>
       </c>
-      <c r="E16" s="3">
+      <c r="D16" s="5">
         <v>0</v>
       </c>
-      <c r="F16" s="3">
-        <v>109.1118333</v>
-      </c>
-      <c r="G16" s="3">
+      <c r="E16" s="5">
         <v>0</v>
       </c>
-      <c r="H16" s="3">
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
